--- a/Eksperimen 6/ADRO/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ADRO/training_results_with_epoch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -47,10 +47,40 @@
     <t>ADRO</t>
   </si>
   <si>
+    <t>Open_LAG</t>
+  </si>
+  <si>
+    <t>High_LAG</t>
+  </si>
+  <si>
+    <t>Low_LAG</t>
+  </si>
+  <si>
+    <t>Volume_LAG</t>
+  </si>
+  <si>
+    <t>Close_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_LAG</t>
+  </si>
+  <si>
+    <t>Open_Low_LAG</t>
+  </si>
+  <si>
+    <t>Open_Volume_LAG</t>
+  </si>
+  <si>
+    <t>High_Low_LAG</t>
+  </si>
+  <si>
     <t>High_Volume_LAG</t>
   </si>
   <si>
     <t>Low_Volume_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_Low_LAG</t>
   </si>
   <si>
     <t>Open_High_Volume_LAG</t>
@@ -480,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,22 +556,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>14776.52734375</v>
+        <v>13244.58203125</v>
       </c>
       <c r="F2">
-        <v>102.8461532592773</v>
+        <v>94.26763916015624</v>
       </c>
       <c r="G2">
-        <v>0.1660420810831114</v>
+        <v>0.1497542726865895</v>
       </c>
       <c r="H2">
-        <v>121.5069995014102</v>
+        <v>115.0368873074632</v>
       </c>
       <c r="I2">
-        <v>-0.5663167901430156</v>
+        <v>-0.4039003090240525</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -555,22 +585,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>4326.2744140625</v>
+        <v>3924.5009765625</v>
       </c>
       <c r="F3">
-        <v>52.38724136352539</v>
+        <v>46.21036148071289</v>
       </c>
       <c r="G3">
-        <v>0.1247779909285281</v>
+        <v>0.1180686806099806</v>
       </c>
       <c r="H3">
-        <v>65.59872876710303</v>
+        <v>62.59663533304472</v>
       </c>
       <c r="I3">
-        <v>-0.09907890853692999</v>
+        <v>0.003259520668164</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -584,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>8880.2958984375</v>
+        <v>8918.8671875</v>
       </c>
       <c r="F4">
-        <v>58.07771301269531</v>
+        <v>56.53035736083984</v>
       </c>
       <c r="G4">
-        <v>0.0863009995226075</v>
+        <v>0.083539420018983</v>
       </c>
       <c r="H4">
-        <v>92.35505891733068</v>
+        <v>91.97087827097796</v>
       </c>
       <c r="I4">
-        <v>0.5542450858106026</v>
+        <v>0.5567850250912665</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -613,22 +643,22 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>374560.09375</v>
+        <v>1212366.5</v>
       </c>
       <c r="F5">
-        <v>575.5408325195312</v>
+        <v>1076.806274414062</v>
       </c>
       <c r="G5">
-        <v>0.373633694209343</v>
+        <v>0.7134307315699316</v>
       </c>
       <c r="H5">
-        <v>611.9590414201252</v>
+        <v>1101.0222776155</v>
       </c>
       <c r="I5">
-        <v>-8.305807472353905</v>
+        <v>-29.11092915596901</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -642,22 +672,22 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>155010.84375</v>
+        <v>146228.671875</v>
       </c>
       <c r="F6">
-        <v>304.9170227050781</v>
+        <v>281.6713256835937</v>
       </c>
       <c r="G6">
-        <v>0.1384327779024404</v>
+        <v>0.1258523154973978</v>
       </c>
       <c r="H6">
-        <v>393.6752954085803</v>
+        <v>382.3793538492028</v>
       </c>
       <c r="I6">
-        <v>0.08182254049439849</v>
+        <v>0.1340607730446823</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -671,22 +701,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>14309.8388671875</v>
+        <v>13855.00390625</v>
       </c>
       <c r="F7">
-        <v>100.9035720825195</v>
+        <v>98.02194213867188</v>
       </c>
       <c r="G7">
-        <v>0.163084430645657</v>
+        <v>0.1574185526092076</v>
       </c>
       <c r="H7">
-        <v>119.5788490195399</v>
+        <v>117.6695848682293</v>
       </c>
       <c r="I7">
-        <v>-0.5166834344907332</v>
+        <v>-0.4682622209264776</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -700,22 +730,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>4191.95947265625</v>
+        <v>3120.37060546875</v>
       </c>
       <c r="F8">
-        <v>50.22980117797852</v>
+        <v>41.18591690063477</v>
       </c>
       <c r="G8">
-        <v>0.1238490929927719</v>
+        <v>0.1030023855158922</v>
       </c>
       <c r="H8">
-        <v>64.68987367582416</v>
+        <v>54.9784025737908</v>
       </c>
       <c r="I8">
-        <v>-0.06470764066771589</v>
+        <v>0.2081599901169234</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -729,22 +759,22 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>8614.9765625</v>
+        <v>7495.1962890625</v>
       </c>
       <c r="F9">
-        <v>56.63996887207031</v>
+        <v>52.55439758300781</v>
       </c>
       <c r="G9">
-        <v>0.0853353579907586</v>
+        <v>0.0785053852474366</v>
       </c>
       <c r="H9">
-        <v>90.2595887734342</v>
+        <v>83.4354978092274</v>
       </c>
       <c r="I9">
-        <v>0.5727014257951679</v>
+        <v>0.6324552557971738</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -758,22 +788,22 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>582216.125</v>
+        <v>648123.375</v>
       </c>
       <c r="F10">
-        <v>735.9558715820312</v>
+        <v>778.7572021484375</v>
       </c>
       <c r="G10">
-        <v>0.4834199501084221</v>
+        <v>0.5123648922441872</v>
       </c>
       <c r="H10">
-        <v>763.0011189361652</v>
+        <v>805.0330041835149</v>
       </c>
       <c r="I10">
-        <v>-13.4628816565045</v>
+        <v>-15.09983434112772</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -787,22 +817,22 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>171844.640625</v>
+        <v>122100.0546875</v>
       </c>
       <c r="F11">
-        <v>315.1885681152344</v>
+        <v>263.8988647460937</v>
       </c>
       <c r="G11">
-        <v>0.1416756983225449</v>
+        <v>0.1185733934210404</v>
       </c>
       <c r="H11">
-        <v>414.5075225830349</v>
+        <v>349.3754179343541</v>
       </c>
       <c r="I11">
-        <v>-0.0178245251181372</v>
+        <v>0.276637061928074</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -816,22 +846,22 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>14891.9599609375</v>
+        <v>18041.962890625</v>
       </c>
       <c r="F12">
-        <v>102.9749450683594</v>
+        <v>115.1800155639648</v>
       </c>
       <c r="G12">
-        <v>0.1659355041326025</v>
+        <v>0.1847585329586056</v>
       </c>
       <c r="H12">
-        <v>121.9847256502325</v>
+        <v>134.2594383939122</v>
       </c>
       <c r="I12">
-        <v>-0.5784466148491316</v>
+        <v>-0.9094624124878692</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -845,22 +875,22 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>4299.62060546875</v>
+        <v>4410.0439453125</v>
       </c>
       <c r="F13">
-        <v>51.75999450683594</v>
+        <v>51.33213424682617</v>
       </c>
       <c r="G13">
-        <v>0.1242288844139062</v>
+        <v>0.1276746104719683</v>
       </c>
       <c r="H13">
-        <v>65.35784276240543</v>
+        <v>66.28074145302934</v>
       </c>
       <c r="I13">
-        <v>-0.0922792194807619</v>
+        <v>-0.1203269147936861</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -874,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E14">
-        <v>9405.365234375</v>
+        <v>7604.62353515625</v>
       </c>
       <c r="F14">
-        <v>58.98426055908203</v>
+        <v>52.00767517089844</v>
       </c>
       <c r="G14">
-        <v>0.0866464623032116</v>
+        <v>0.0771819213468931</v>
       </c>
       <c r="H14">
-        <v>94.90683841879978</v>
+        <v>84.06841930575796</v>
       </c>
       <c r="I14">
-        <v>0.5290185872400157</v>
+        <v>0.6269927771960409</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -903,22 +933,22 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>364414.15625</v>
+        <v>1320107.75</v>
       </c>
       <c r="F15">
-        <v>568.915771484375</v>
+        <v>1130.518920898438</v>
       </c>
       <c r="G15">
-        <v>0.3695897067062232</v>
+        <v>0.7520821487924482</v>
       </c>
       <c r="H15">
-        <v>603.3952076052831</v>
+        <v>1148.816391531906</v>
       </c>
       <c r="I15">
-        <v>-8.058994894247244</v>
+        <v>-31.79050461178268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -932,22 +962,22 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>190493.140625</v>
+        <v>342773.875</v>
       </c>
       <c r="F16">
-        <v>330.5887451171875</v>
+        <v>437.111083984375</v>
       </c>
       <c r="G16">
-        <v>0.1481813051964423</v>
+        <v>0.1962757534060397</v>
       </c>
       <c r="H16">
-        <v>436.4151932003385</v>
+        <v>585.4637357873215</v>
       </c>
       <c r="I16">
-        <v>-0.128320449888437</v>
+        <v>-1.029100551453969</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -961,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>15490.861328125</v>
+        <v>14096.291015625</v>
       </c>
       <c r="F17">
-        <v>105.7344665527344</v>
+        <v>98.38352966308594</v>
       </c>
       <c r="G17">
-        <v>0.1704207727747948</v>
+        <v>0.1564137445842706</v>
       </c>
       <c r="H17">
-        <v>124.4086197360153</v>
+        <v>118.6851172703796</v>
       </c>
       <c r="I17">
-        <v>-0.6420566369407719</v>
+        <v>-0.4939959337450565</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -993,19 +1023,19 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>4087.487060546875</v>
+        <v>4369.36181640625</v>
       </c>
       <c r="F18">
-        <v>49.1632194519043</v>
+        <v>52.91778564453125</v>
       </c>
       <c r="G18">
-        <v>0.1218278212631618</v>
+        <v>0.1253629026379392</v>
       </c>
       <c r="H18">
-        <v>63.87089450477636</v>
+        <v>66.03783489527342</v>
       </c>
       <c r="I18">
-        <v>-0.0382667704887438</v>
+        <v>-0.1098361998560855</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1019,22 +1049,22 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>8484.8486328125</v>
+        <v>12138.7509765625</v>
       </c>
       <c r="F19">
-        <v>55.33815002441406</v>
+        <v>69.44911956787109</v>
       </c>
       <c r="G19">
-        <v>0.0812661854043786</v>
+        <v>0.1011711576730682</v>
       </c>
       <c r="H19">
-        <v>89.95748786898831</v>
+        <v>108.9401635321166</v>
       </c>
       <c r="I19">
-        <v>0.5764832810279034</v>
+        <v>0.3795760801236656</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1048,22 +1078,22 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E20">
-        <v>1078148.875</v>
+        <v>363278.09375</v>
       </c>
       <c r="F20">
-        <v>1016.8095703125</v>
+        <v>568.8429565429688</v>
       </c>
       <c r="G20">
-        <v>0.6740653712543179</v>
+        <v>0.369762800255231</v>
       </c>
       <c r="H20">
-        <v>1038.299529351048</v>
+        <v>602.7154884768747</v>
       </c>
       <c r="I20">
-        <v>-25.77964739745319</v>
+        <v>-8.023193334722055</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1077,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>138120.703125</v>
+        <v>181987.734375</v>
       </c>
       <c r="F21">
-        <v>293.3396606445312</v>
+        <v>334.7237854003906</v>
       </c>
       <c r="G21">
-        <v>0.1342330720539285</v>
+        <v>0.1526499722246629</v>
       </c>
       <c r="H21">
-        <v>371.5393713736734</v>
+        <v>426.567172325096</v>
       </c>
       <c r="I21">
-        <v>0.1814360557830084</v>
+        <v>-0.0778776630690235</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1106,22 +1136,22 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>14054.375</v>
+        <v>13338.419921875</v>
       </c>
       <c r="F22">
-        <v>98.17977142333984</v>
+        <v>95.11325073242188</v>
       </c>
       <c r="G22">
-        <v>0.1560922829077741</v>
+        <v>0.152073457645217</v>
       </c>
       <c r="H22">
-        <v>118.5093177527349</v>
+        <v>115.4481256363376</v>
       </c>
       <c r="I22">
-        <v>-0.4895333236931878</v>
+        <v>-0.4137193409453149</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1135,22 +1165,22 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>3625.796142578125</v>
+        <v>3913.98388671875</v>
       </c>
       <c r="F23">
-        <v>44.98456192016602</v>
+        <v>47.86849594116211</v>
       </c>
       <c r="G23">
-        <v>0.1156171097935927</v>
+        <v>0.1177022273034302</v>
       </c>
       <c r="H23">
-        <v>59.96302036807924</v>
+        <v>62.48978469147815</v>
       </c>
       <c r="I23">
-        <v>0.07945225837179549</v>
+        <v>0.00596145636824</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1164,22 +1194,22 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E24">
-        <v>8543.271484375</v>
+        <v>7663.17626953125</v>
       </c>
       <c r="F24">
-        <v>55.89941024780273</v>
+        <v>53.40924835205078</v>
       </c>
       <c r="G24">
-        <v>0.0823657323902398</v>
+        <v>0.08002024585309089</v>
       </c>
       <c r="H24">
-        <v>90.2496224370809</v>
+        <v>84.68373847812015</v>
       </c>
       <c r="I24">
-        <v>0.5737465393880024</v>
+        <v>0.6225453997547994</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1193,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>333752.09375</v>
+        <v>557781.625</v>
       </c>
       <c r="F25">
-        <v>541.949462890625</v>
+        <v>717.7891235351562</v>
       </c>
       <c r="G25">
-        <v>0.3513242970285741</v>
+        <v>0.4706221110323372</v>
       </c>
       <c r="H25">
-        <v>577.6412927826758</v>
+        <v>746.8025645073864</v>
       </c>
       <c r="I25">
-        <v>-7.292741557428545</v>
+        <v>-12.85691164997065</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1222,22 +1252,22 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E26">
-        <v>156368.34375</v>
+        <v>113242.1328125</v>
       </c>
       <c r="F26">
-        <v>291.7561645507812</v>
+        <v>251.8615112304688</v>
       </c>
       <c r="G26">
-        <v>0.1298090061749327</v>
+        <v>0.1130701063720515</v>
       </c>
       <c r="H26">
-        <v>395.3850337180829</v>
+        <v>336.4343825792145</v>
       </c>
       <c r="I26">
-        <v>0.0737040514955334</v>
+        <v>0.3289580126285047</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1251,22 +1281,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>14207.50390625</v>
+        <v>14316.048828125</v>
       </c>
       <c r="F27">
-        <v>100.8671112060547</v>
+        <v>100.035026550293</v>
       </c>
       <c r="G27">
-        <v>0.1635020791530009</v>
+        <v>0.1605935735407425</v>
       </c>
       <c r="H27">
-        <v>119.1490552818162</v>
+        <v>119.6003024380985</v>
       </c>
       <c r="I27">
-        <v>-0.5058504907503699</v>
+        <v>-0.5174746780194265</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1280,22 +1310,22 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>2615.09228515625</v>
+        <v>3283.640625</v>
       </c>
       <c r="F28">
-        <v>36.90458679199219</v>
+        <v>41.0859260559082</v>
       </c>
       <c r="G28">
-        <v>0.08994240806924809</v>
+        <v>0.1051244947921938</v>
       </c>
       <c r="H28">
-        <v>49.89778335795565</v>
+        <v>57.04832916888427</v>
       </c>
       <c r="I28">
-        <v>0.3364944794810096</v>
+        <v>0.166373871279878</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1309,22 +1339,22 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E29">
-        <v>7161.76318359375</v>
+        <v>8073.67236328125</v>
       </c>
       <c r="F29">
-        <v>52.72561645507812</v>
+        <v>53.58689880371094</v>
       </c>
       <c r="G29">
-        <v>0.0805035942567022</v>
+        <v>0.0794695947675586</v>
       </c>
       <c r="H29">
-        <v>81.30128283600838</v>
+        <v>87.21345388159627</v>
       </c>
       <c r="I29">
-        <v>0.6501502342078858</v>
+        <v>0.600632216583795</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1338,22 +1368,22 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>259885.515625</v>
+        <v>647996.875</v>
       </c>
       <c r="F30">
-        <v>470.2006530761719</v>
+        <v>764.4179077148438</v>
       </c>
       <c r="G30">
-        <v>0.302710836984245</v>
+        <v>0.4987280001922194</v>
       </c>
       <c r="H30">
-        <v>509.7644796865272</v>
+        <v>804.9607822278305</v>
       </c>
       <c r="I30">
-        <v>-5.456017186934407</v>
+        <v>-15.09594221047156</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1367,22 +1397,22 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E31">
-        <v>145452.25</v>
+        <v>140549.203125</v>
       </c>
       <c r="F31">
-        <v>289.8777465820312</v>
+        <v>277.0344848632812</v>
       </c>
       <c r="G31">
-        <v>0.1303794263643769</v>
+        <v>0.1236150024768324</v>
       </c>
       <c r="H31">
-        <v>381.3138611828789</v>
+        <v>374.8686472448009</v>
       </c>
       <c r="I31">
-        <v>0.1382244208011364</v>
+        <v>0.167555604245624</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1396,22 +1426,22 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>9980.8466796875</v>
+        <v>13921.9384765625</v>
       </c>
       <c r="F32">
-        <v>79.75795745849609</v>
+        <v>97.90781402587891</v>
       </c>
       <c r="G32">
-        <v>0.126505880912193</v>
+        <v>0.1565833070905131</v>
       </c>
       <c r="H32">
-        <v>99.8971407428498</v>
+        <v>117.9492032205888</v>
       </c>
       <c r="I32">
-        <v>-0.0568203776741491</v>
+        <v>-0.4755203505135288</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1428,19 +1458,19 @@
         <v>23</v>
       </c>
       <c r="E33">
-        <v>2726.366455078125</v>
+        <v>3158.03662109375</v>
       </c>
       <c r="F33">
-        <v>37.35689163208008</v>
+        <v>41.56772232055664</v>
       </c>
       <c r="G33">
-        <v>0.0934557160670766</v>
+        <v>0.100714814218689</v>
       </c>
       <c r="H33">
-        <v>51.32219114640849</v>
+        <v>56.15236802668588</v>
       </c>
       <c r="I33">
-        <v>0.3081523064683717</v>
+        <v>0.1979995198916207</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1454,22 +1484,22 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>8654.7919921875</v>
+        <v>8326.1201171875</v>
       </c>
       <c r="F34">
-        <v>55.18153381347656</v>
+        <v>54.26575088500977</v>
       </c>
       <c r="G34">
-        <v>0.08109331169317011</v>
+        <v>0.08074372146164149</v>
       </c>
       <c r="H34">
-        <v>90.5730390571631</v>
+        <v>88.92261114684044</v>
       </c>
       <c r="I34">
-        <v>0.5700519782460689</v>
+        <v>0.5857942044018239</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1483,22 +1513,22 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E35">
-        <v>468690.375</v>
+        <v>1781695.875</v>
       </c>
       <c r="F35">
-        <v>653.3924560546875</v>
+        <v>1322.113159179688</v>
       </c>
       <c r="G35">
-        <v>0.4268745886285172</v>
+        <v>0.8855750791368355</v>
       </c>
       <c r="H35">
-        <v>684.5832698458333</v>
+        <v>1334.76926127029</v>
       </c>
       <c r="I35">
-        <v>-10.64265544240084</v>
+        <v>-43.25393512312898</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1512,22 +1542,22 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E36">
-        <v>132441.078125</v>
+        <v>193420.53125</v>
       </c>
       <c r="F36">
-        <v>271.8146057128906</v>
+        <v>328.1384582519531</v>
       </c>
       <c r="G36">
-        <v>0.1214773135231102</v>
+        <v>0.1462172897769694</v>
       </c>
       <c r="H36">
-        <v>363.8542141210747</v>
+        <v>439.7529228020172</v>
       </c>
       <c r="I36">
-        <v>0.215280709769315</v>
+        <v>-0.1456876407652867</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1541,22 +1571,22 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E37">
-        <v>14908.45703125</v>
+        <v>14372.703125</v>
       </c>
       <c r="F37">
-        <v>103.5172729492188</v>
+        <v>99.46248626708984</v>
       </c>
       <c r="G37">
-        <v>0.167698935962701</v>
+        <v>0.1579728859077971</v>
       </c>
       <c r="H37">
-        <v>122.0496256411355</v>
+        <v>119.8439337776254</v>
       </c>
       <c r="I37">
-        <v>-0.5802686146766325</v>
+        <v>-0.5232772797364001</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1570,22 +1600,22 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>2906.97216796875</v>
+        <v>4228.27880859375</v>
       </c>
       <c r="F38">
-        <v>39.237548828125</v>
+        <v>52.15508651733398</v>
       </c>
       <c r="G38">
-        <v>0.0971868283451358</v>
+        <v>0.1221463699732979</v>
       </c>
       <c r="H38">
-        <v>52.11313989824016</v>
+        <v>64.89845292253216</v>
       </c>
       <c r="I38">
-        <v>0.2625496005541166</v>
+        <v>-0.0738389285018468</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1599,22 +1629,22 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E39">
-        <v>6439.1240234375</v>
+        <v>8322.748046875</v>
       </c>
       <c r="F39">
-        <v>49.65889739990234</v>
+        <v>55.99771118164063</v>
       </c>
       <c r="G39">
-        <v>0.0752935330498444</v>
+        <v>0.0832607929071099</v>
       </c>
       <c r="H39">
-        <v>76.66910997802101</v>
+        <v>88.76491266458119</v>
       </c>
       <c r="I39">
-        <v>0.6871427666595573</v>
+        <v>0.5869556385115509</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1628,22 +1658,22 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>426660.3125</v>
+        <v>456300.96875</v>
       </c>
       <c r="F40">
-        <v>621.5021362304688</v>
+        <v>641.7939453125</v>
       </c>
       <c r="G40">
-        <v>0.4054639248657422</v>
+        <v>0.4184514754430934</v>
       </c>
       <c r="H40">
-        <v>653.1679416828549</v>
+        <v>675.4557429368542</v>
       </c>
       <c r="I40">
-        <v>-9.598607599060594</v>
+        <v>-10.33603826224016</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1657,22 +1687,22 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>121836.2734375</v>
+        <v>148556.921875</v>
       </c>
       <c r="F41">
-        <v>257.618896484375</v>
+        <v>293.6627502441406</v>
       </c>
       <c r="G41">
-        <v>0.1153505631502313</v>
+        <v>0.1323821131613767</v>
       </c>
       <c r="H41">
-        <v>349.0135715755751</v>
+        <v>385.3674210261463</v>
       </c>
       <c r="I41">
-        <v>0.2783259378085196</v>
+        <v>0.1198628389743532</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1686,22 +1716,22 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>10980.3720703125</v>
+        <v>13067.947265625</v>
       </c>
       <c r="F42">
-        <v>83.92375946044922</v>
+        <v>93.85549926757812</v>
       </c>
       <c r="G42">
-        <v>0.1326436548439749</v>
+        <v>0.1498519060319758</v>
       </c>
       <c r="H42">
-        <v>104.7860411548067</v>
+        <v>114.2692954571326</v>
       </c>
       <c r="I42">
-        <v>-0.1615479531488905</v>
+        <v>-0.3851249583831485</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1715,22 +1745,22 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>2753.206787109375</v>
+        <v>4161.42138671875</v>
       </c>
       <c r="F43">
-        <v>38.07322692871094</v>
+        <v>49.46764373779297</v>
       </c>
       <c r="G43">
-        <v>0.09429978977184041</v>
+        <v>0.1226278358646443</v>
       </c>
       <c r="H43">
-        <v>50.89803335774529</v>
+        <v>64.3678959327144</v>
       </c>
       <c r="I43">
-        <v>0.3015247927775147</v>
+        <v>-0.0568559593479033</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1744,22 +1774,22 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E44">
-        <v>6630.9599609375</v>
+        <v>7449.84423828125</v>
       </c>
       <c r="F44">
-        <v>51.23701858520508</v>
+        <v>53.01898574829102</v>
       </c>
       <c r="G44">
-        <v>0.07852468370730011</v>
+        <v>0.07904648364344299</v>
       </c>
       <c r="H44">
-        <v>77.79420154864745</v>
+        <v>83.26717118840719</v>
       </c>
       <c r="I44">
-        <v>0.6779201737392566</v>
+        <v>0.6344351595937361</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1773,22 +1803,22 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>239409.859375</v>
+        <v>551039.625</v>
       </c>
       <c r="F45">
-        <v>447.7434387207031</v>
+        <v>707.1371459960938</v>
       </c>
       <c r="G45">
-        <v>0.2873876429801706</v>
+        <v>0.461698316959606</v>
       </c>
       <c r="H45">
-        <v>489.252414212833</v>
+        <v>742.3036883584264</v>
       </c>
       <c r="I45">
-        <v>-4.948040372340426</v>
+        <v>-12.68721273933748</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1802,22 +1832,22 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>158809.078125</v>
+        <v>228753.609375</v>
       </c>
       <c r="F46">
-        <v>298.0082702636719</v>
+        <v>363.7479248046875</v>
       </c>
       <c r="G46">
-        <v>0.1330538991139989</v>
+        <v>0.1633085569118534</v>
       </c>
       <c r="H46">
-        <v>398.4600822939172</v>
+        <v>478.1957269704928</v>
       </c>
       <c r="I46">
-        <v>0.0592547509675768</v>
+        <v>-0.355344187374139</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1831,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>11138.4912109375</v>
+        <v>87642.390625</v>
       </c>
       <c r="F47">
-        <v>85.03728485107422</v>
+        <v>279.2057189941406</v>
       </c>
       <c r="G47">
-        <v>0.13499424946882</v>
+        <v>0.4520996532358195</v>
       </c>
       <c r="H47">
-        <v>105.5364541664772</v>
+        <v>295.6422642012566</v>
       </c>
       <c r="I47">
-        <v>-0.1790363615665991</v>
+        <v>-8.276797659385142</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1860,22 +1890,22 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>2924.314697265625</v>
+        <v>3190.403564453125</v>
       </c>
       <c r="F48">
-        <v>39.3105697631836</v>
+        <v>41.86094284057617</v>
       </c>
       <c r="G48">
-        <v>0.0990436245526853</v>
+        <v>0.1057636836524072</v>
       </c>
       <c r="H48">
-        <v>53.25337826765291</v>
+        <v>55.98874208712303</v>
       </c>
       <c r="I48">
-        <v>0.2578912014821026</v>
+        <v>0.1901986832579093</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1889,22 +1919,22 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>7023.61474609375</v>
+        <v>7909.53564453125</v>
       </c>
       <c r="F49">
-        <v>50.9893913269043</v>
+        <v>55.58462142944336</v>
       </c>
       <c r="G49">
-        <v>0.0767043626293729</v>
+        <v>0.0832091798825164</v>
       </c>
       <c r="H49">
-        <v>79.74384100107741</v>
+        <v>86.05641363654024</v>
       </c>
       <c r="I49">
-        <v>0.6601702417174714</v>
+        <v>0.6103692915508616</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1918,22 +1948,22 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>367156.5625</v>
+        <v>463133.6875</v>
       </c>
       <c r="F50">
-        <v>571.981201171875</v>
+        <v>648.6007080078125</v>
       </c>
       <c r="G50">
-        <v>0.371801213379883</v>
+        <v>0.423475591676007</v>
       </c>
       <c r="H50">
-        <v>605.9068021933597</v>
+        <v>680.5190650731957</v>
       </c>
       <c r="I50">
-        <v>-8.120718674521838</v>
+        <v>-10.5040487462977</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1947,22 +1977,22 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E51">
-        <v>120643</v>
+        <v>147474.6875</v>
       </c>
       <c r="F51">
-        <v>262.8957214355469</v>
+        <v>282.2631530761719</v>
       </c>
       <c r="G51">
-        <v>0.1183471630679594</v>
+        <v>0.1254491875979864</v>
       </c>
       <c r="H51">
-        <v>347.2430178693175</v>
+        <v>383.9699888241099</v>
       </c>
       <c r="I51">
-        <v>0.2850646426804762</v>
+        <v>0.1263434671782537</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1976,22 +2006,22 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E52">
-        <v>11088.4208984375</v>
+        <v>14598.3203125</v>
       </c>
       <c r="F52">
-        <v>84.80572509765625</v>
+        <v>99.7637939453125</v>
       </c>
       <c r="G52">
-        <v>0.1347223908429929</v>
+        <v>0.1579255363783982</v>
       </c>
       <c r="H52">
-        <v>105.274826721445</v>
+        <v>120.7656032801738</v>
       </c>
       <c r="I52">
-        <v>-0.1748852457695621</v>
+        <v>-0.5475647790140775</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2005,22 +2035,22 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>3037.150634765625</v>
+        <v>4169.19287109375</v>
       </c>
       <c r="F53">
-        <v>42.13718795776367</v>
+        <v>51.07997512817383</v>
       </c>
       <c r="G53">
-        <v>0.0995695135204781</v>
+        <v>0.1209478492751477</v>
       </c>
       <c r="H53">
-        <v>54.97882354962939</v>
+        <v>64.40923694925824</v>
       </c>
       <c r="I53">
-        <v>0.2288632202644255</v>
+        <v>-0.0587694094797776</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2037,19 +2067,19 @@
         <v>50</v>
       </c>
       <c r="E54">
-        <v>6881.53515625</v>
+        <v>8137.8388671875</v>
       </c>
       <c r="F54">
-        <v>49.79100036621094</v>
+        <v>53.50756454467773</v>
       </c>
       <c r="G54">
-        <v>0.07418765138837639</v>
+        <v>0.07929956325144399</v>
       </c>
       <c r="H54">
-        <v>79.38541127953589</v>
+        <v>87.84922454853564</v>
       </c>
       <c r="I54">
-        <v>0.6652499441591723</v>
+        <v>0.595635146588116</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2063,22 +2093,22 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E55">
-        <v>316308.84375</v>
+        <v>802242.0625</v>
       </c>
       <c r="F55">
-        <v>524.640380859375</v>
+        <v>862.3854370117188</v>
       </c>
       <c r="G55">
-        <v>0.3392994766217427</v>
+        <v>0.5665343050014368</v>
       </c>
       <c r="H55">
-        <v>562.3967328462923</v>
+        <v>895.6567961738925</v>
       </c>
       <c r="I55">
-        <v>-6.85686512048592</v>
+        <v>-18.92729668404941</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2092,22 +2122,22 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>142564.265625</v>
+        <v>171689.125</v>
       </c>
       <c r="F56">
-        <v>278.0752868652344</v>
+        <v>309.184326171875</v>
       </c>
       <c r="G56">
-        <v>0.123973935783617</v>
+        <v>0.1379080523240037</v>
       </c>
       <c r="H56">
-        <v>377.5265009050704</v>
+        <v>414.3209526977552</v>
       </c>
       <c r="I56">
-        <v>0.1554471039305163</v>
+        <v>-0.0168721976730243</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2121,22 +2151,22 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>11009.7421875</v>
+        <v>15802.4306640625</v>
       </c>
       <c r="F57">
-        <v>84.25253295898438</v>
+        <v>106.5433654785156</v>
       </c>
       <c r="G57">
-        <v>0.1337942965594931</v>
+        <v>0.1715806676922549</v>
       </c>
       <c r="H57">
-        <v>104.9223300479818</v>
+        <v>125.64976662176</v>
       </c>
       <c r="I57">
-        <v>-0.164310233646056</v>
+        <v>-0.6751788453575345</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2150,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>2773.149658203125</v>
+        <v>4088.483154296875</v>
       </c>
       <c r="F58">
-        <v>38.14450454711914</v>
+        <v>49.86845779418945</v>
       </c>
       <c r="G58">
-        <v>0.0959733866800145</v>
+        <v>0.1213197654126059</v>
       </c>
       <c r="H58">
-        <v>51.80450802150913</v>
+        <v>63.8642293460212</v>
       </c>
       <c r="I58">
-        <v>0.2962706983502482</v>
+        <v>-0.0385201113326965</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2179,22 +2209,22 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E59">
-        <v>6551.927734375</v>
+        <v>7468.7568359375</v>
       </c>
       <c r="F59">
-        <v>51.22193908691406</v>
+        <v>51.65164184570312</v>
       </c>
       <c r="G59">
-        <v>0.0784175270414907</v>
+        <v>0.0766053327268388</v>
       </c>
       <c r="H59">
-        <v>77.73174107363901</v>
+        <v>83.10896425015957</v>
       </c>
       <c r="I59">
-        <v>0.6800607206031808</v>
+        <v>0.634671844091637</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2208,22 +2238,22 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>289269.0625</v>
+        <v>836731.5</v>
       </c>
       <c r="F60">
-        <v>496.4768676757813</v>
+        <v>889.156494140625</v>
       </c>
       <c r="G60">
-        <v>0.3197495972217801</v>
+        <v>0.5866870063152574</v>
       </c>
       <c r="H60">
-        <v>537.819133038111</v>
+        <v>914.7015615141941</v>
       </c>
       <c r="I60">
-        <v>-6.185378076188917</v>
+        <v>-19.78419847168578</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2237,22 +2267,22 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>164366.5</v>
+        <v>620380.5625</v>
       </c>
       <c r="F61">
-        <v>300.3911743164062</v>
+        <v>592.7683715820312</v>
       </c>
       <c r="G61">
-        <v>0.1336347871833397</v>
+        <v>0.2656412894218837</v>
       </c>
       <c r="H61">
-        <v>405.3767252191479</v>
+        <v>787.6295121069855</v>
       </c>
       <c r="I61">
-        <v>0.0263792112105416</v>
+        <v>-2.672930141903109</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2266,22 +2296,22 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E62">
-        <v>14047.8837890625</v>
+        <v>14223.2275390625</v>
       </c>
       <c r="F62">
-        <v>99.07601928710938</v>
+        <v>99.5657196044922</v>
       </c>
       <c r="G62">
-        <v>0.1586850423793424</v>
+        <v>0.1596337343440865</v>
       </c>
       <c r="H62">
-        <v>118.4840643982737</v>
+        <v>119.2129513353778</v>
       </c>
       <c r="I62">
-        <v>-0.4887667845871302</v>
+        <v>-0.5076024680308584</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2298,19 +2328,19 @@
         <v>34</v>
       </c>
       <c r="E63">
-        <v>2879.6220703125</v>
+        <v>3025.489013671875</v>
       </c>
       <c r="F63">
-        <v>39.31405258178711</v>
+        <v>40.07379150390625</v>
       </c>
       <c r="G63">
-        <v>0.0976309120636981</v>
+        <v>0.1012479088715922</v>
       </c>
       <c r="H63">
-        <v>51.90179853466114</v>
+        <v>54.54106244434983</v>
       </c>
       <c r="I63">
-        <v>0.2694825110518041</v>
+        <v>0.232057308234768</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2324,22 +2354,22 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E64">
-        <v>7100.17138671875</v>
+        <v>8170.16162109375</v>
       </c>
       <c r="F64">
-        <v>51.1811752319336</v>
+        <v>55.29310607910156</v>
       </c>
       <c r="G64">
-        <v>0.0773086867163208</v>
+        <v>0.0825932212717566</v>
       </c>
       <c r="H64">
-        <v>80.70190359498795</v>
+        <v>87.3429992587904</v>
       </c>
       <c r="I64">
-        <v>0.654290005656163</v>
+        <v>0.5981264719560472</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2353,22 +2383,22 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E65">
-        <v>265129.8125</v>
+        <v>554842.125</v>
       </c>
       <c r="F65">
-        <v>473.284912109375</v>
+        <v>705.2232055664062</v>
       </c>
       <c r="G65">
-        <v>0.3042875623122676</v>
+        <v>0.459371952352428</v>
       </c>
       <c r="H65">
-        <v>514.8626681054756</v>
+        <v>744.8499924243489</v>
       </c>
       <c r="I65">
-        <v>-5.586909348555468</v>
+        <v>-12.78267029297892</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2382,22 +2412,22 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E66">
-        <v>171821.15625</v>
+        <v>182039.8125</v>
       </c>
       <c r="F66">
-        <v>306.9243469238281</v>
+        <v>316.7022399902344</v>
       </c>
       <c r="G66">
-        <v>0.1365024540542274</v>
+        <v>0.1409231644611193</v>
       </c>
       <c r="H66">
-        <v>414.4591376347303</v>
+        <v>426.6303153495277</v>
       </c>
       <c r="I66">
-        <v>-0.0178434425650888</v>
+        <v>-0.07814100559986439</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2411,22 +2441,22 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E67">
-        <v>10746.642578125</v>
+        <v>14206.2822265625</v>
       </c>
       <c r="F67">
-        <v>83.18602752685547</v>
+        <v>100.021354675293</v>
       </c>
       <c r="G67">
-        <v>0.1320655612803097</v>
+        <v>0.1612535452676468</v>
       </c>
       <c r="H67">
-        <v>103.665417686519</v>
+        <v>119.1571774966148</v>
       </c>
       <c r="I67">
-        <v>-0.1370655275913912</v>
+        <v>-0.5052920530494852</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2440,22 +2470,22 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>2811.182373046875</v>
+        <v>3121.62939453125</v>
       </c>
       <c r="F68">
-        <v>38.29426574707031</v>
+        <v>40.29271697998047</v>
       </c>
       <c r="G68">
-        <v>0.0953128059902541</v>
+        <v>0.0987934942676542</v>
       </c>
       <c r="H68">
-        <v>51.60357435884843</v>
+        <v>55.7850886802979</v>
       </c>
       <c r="I68">
-        <v>0.2867786538690758</v>
+        <v>0.207351575008937</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2469,22 +2499,22 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E69">
-        <v>6649.83447265625</v>
+        <v>7953.29052734375</v>
       </c>
       <c r="F69">
-        <v>50.73866653442383</v>
+        <v>53.80508804321289</v>
       </c>
       <c r="G69">
-        <v>0.0770963154263393</v>
+        <v>0.0794586251604576</v>
       </c>
       <c r="H69">
-        <v>78.48767103492854</v>
+        <v>86.69037035267405</v>
       </c>
       <c r="I69">
-        <v>0.6744107842444736</v>
+        <v>0.6058028493724872</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2498,22 +2528,22 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E70">
-        <v>381735.3125</v>
+        <v>786341.625</v>
       </c>
       <c r="F70">
-        <v>584.655517578125</v>
+        <v>846.055908203125</v>
       </c>
       <c r="G70">
-        <v>0.3804618479921341</v>
+        <v>0.5536860100954807</v>
       </c>
       <c r="H70">
-        <v>617.8015782877104</v>
+        <v>886.7288449408858</v>
       </c>
       <c r="I70">
-        <v>-8.483802540072425</v>
+        <v>-18.53308436304911</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2527,22 +2557,22 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E71">
-        <v>116915.5546875</v>
+        <v>284038.28125</v>
       </c>
       <c r="F71">
-        <v>251.4371490478516</v>
+        <v>378.9862976074219</v>
       </c>
       <c r="G71">
-        <v>0.1121932220932914</v>
+        <v>0.1668282221139005</v>
       </c>
       <c r="H71">
-        <v>341.8708415252408</v>
+        <v>532.9132200822569</v>
       </c>
       <c r="I71">
-        <v>0.3073280685603176</v>
+        <v>-0.6821534054864888</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2556,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>11878.2578125</v>
+        <v>17759.845703125</v>
       </c>
       <c r="F72">
-        <v>88.16432952880859</v>
+        <v>113.79248046875</v>
       </c>
       <c r="G72">
-        <v>0.1394791320402207</v>
+        <v>0.1823136118338387</v>
       </c>
       <c r="H72">
-        <v>108.9593424851179</v>
+        <v>133.1917099819099</v>
       </c>
       <c r="I72">
-        <v>-0.2585921104862894</v>
+        <v>-0.8793954213056266</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2585,22 +2615,22 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>2832.1279296875</v>
+        <v>3354.867431640625</v>
       </c>
       <c r="F73">
-        <v>38.9943733215332</v>
+        <v>42.77275466918945</v>
       </c>
       <c r="G73">
-        <v>0.09785414345027491</v>
+        <v>0.10949275509713</v>
       </c>
       <c r="H73">
-        <v>52.04990121329252</v>
+        <v>57.60811417852695</v>
       </c>
       <c r="I73">
-        <v>0.2813955432254186</v>
+        <v>0.1483100894333676</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2614,22 +2644,22 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E74">
-        <v>7256.5576171875</v>
+        <v>8145.6904296875</v>
       </c>
       <c r="F74">
-        <v>52.72246932983398</v>
+        <v>55.60565948486328</v>
       </c>
       <c r="G74">
-        <v>0.08066181664706799</v>
+        <v>0.0845391704944698</v>
       </c>
       <c r="H74">
-        <v>82.17227894693785</v>
+        <v>87.220081521464</v>
       </c>
       <c r="I74">
-        <v>0.6438942743556848</v>
+        <v>0.599362711726206</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2643,22 +2673,22 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E75">
-        <v>304446.875</v>
+        <v>574382.625</v>
       </c>
       <c r="F75">
-        <v>514.477783203125</v>
+        <v>719.1249389648438</v>
       </c>
       <c r="G75">
-        <v>0.3326699639359133</v>
+        <v>0.4687912473198222</v>
       </c>
       <c r="H75">
-        <v>551.7536825612844</v>
+        <v>757.8332355751467</v>
       </c>
       <c r="I75">
-        <v>-6.562025802869671</v>
+        <v>-13.26939192131876</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2672,22 +2702,22 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E76">
-        <v>156347.96875</v>
+        <v>178594.890625</v>
       </c>
       <c r="F76">
-        <v>294.495849609375</v>
+        <v>319.9248352050781</v>
       </c>
       <c r="G76">
-        <v>0.1313371965387739</v>
+        <v>0.1438926846247125</v>
       </c>
       <c r="H76">
-        <v>395.3534468108921</v>
+        <v>422.5795160732304</v>
       </c>
       <c r="I76">
-        <v>0.0737930361326133</v>
+        <v>-0.0576781966474242</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2701,22 +2731,22 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E77">
-        <v>13614.63671875</v>
+        <v>11443.232421875</v>
       </c>
       <c r="F77">
-        <v>97.79148101806641</v>
+        <v>86.62290954589844</v>
       </c>
       <c r="G77">
-        <v>0.1581593589868724</v>
+        <v>0.1380391921982527</v>
       </c>
       <c r="H77">
-        <v>116.6347527431802</v>
+        <v>106.9724064572829</v>
       </c>
       <c r="I77">
-        <v>-0.4430793737183233</v>
+        <v>-0.2109733447297989</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2730,22 +2760,22 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E78">
-        <v>2715.838134765625</v>
+        <v>2778.181884765625</v>
       </c>
       <c r="F78">
-        <v>37.37599182128906</v>
+        <v>38.24588012695312</v>
       </c>
       <c r="G78">
-        <v>0.0930050474227168</v>
+        <v>0.09525039498261979</v>
       </c>
       <c r="H78">
-        <v>50.94398240480962</v>
+        <v>51.59447647330973</v>
       </c>
       <c r="I78">
-        <v>0.3109067623979284</v>
+        <v>0.2950730105474329</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2759,22 +2789,22 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E79">
-        <v>7002.24853515625</v>
+        <v>6996.55615234375</v>
       </c>
       <c r="F79">
-        <v>50.45434951782227</v>
+        <v>51.91007614135742</v>
       </c>
       <c r="G79">
-        <v>0.07525776892767751</v>
+        <v>0.0785915087795008</v>
       </c>
       <c r="H79">
-        <v>80.71402029772948</v>
+        <v>80.08078297276289</v>
       </c>
       <c r="I79">
-        <v>0.6563042038897106</v>
+        <v>0.6594132688283157</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2788,22 +2818,22 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E80">
-        <v>426795.75</v>
+        <v>277236.75</v>
       </c>
       <c r="F80">
-        <v>621.5577392578125</v>
+        <v>485.6703491210938</v>
       </c>
       <c r="G80">
-        <v>0.4054854755842616</v>
+        <v>0.3127143499623125</v>
       </c>
       <c r="H80">
-        <v>653.2911971752114</v>
+        <v>526.528837705381</v>
       </c>
       <c r="I80">
-        <v>-9.599966795100441</v>
+        <v>-5.884199534262055</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2817,22 +2847,22 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E81">
-        <v>101084.59375</v>
+        <v>126982.3125</v>
       </c>
       <c r="F81">
-        <v>241.4202575683593</v>
+        <v>273.9138793945312</v>
       </c>
       <c r="G81">
-        <v>0.1092245694523668</v>
+        <v>0.123928399435992</v>
       </c>
       <c r="H81">
-        <v>317.1453788642831</v>
+        <v>356.0570122777822</v>
       </c>
       <c r="I81">
-        <v>0.3995404927247656</v>
+        <v>0.2468312355137296</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2846,22 +2876,22 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>11160.8330078125</v>
+        <v>14376.095703125</v>
       </c>
       <c r="F82">
-        <v>85.10666656494141</v>
+        <v>101.0649719238281</v>
       </c>
       <c r="G82">
-        <v>0.1350508514960783</v>
+        <v>0.1635285635616933</v>
       </c>
       <c r="H82">
-        <v>105.6253568926375</v>
+        <v>119.8561360607447</v>
       </c>
       <c r="I82">
-        <v>-0.182293867556433</v>
+        <v>-0.5236730164951214</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2875,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>2718.15966796875</v>
+        <v>3969.239501953125</v>
       </c>
       <c r="F83">
-        <v>37.85344314575195</v>
+        <v>50.90125274658203</v>
       </c>
       <c r="G83">
-        <v>0.0938847323876804</v>
+        <v>0.1211916835124724</v>
       </c>
       <c r="H83">
-        <v>50.56755822997825</v>
+        <v>62.88909346468613</v>
       </c>
       <c r="I83">
-        <v>0.3104109146017291</v>
+        <v>-0.008150490410983299</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2904,22 +2934,22 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E84">
-        <v>6803.25</v>
+        <v>7317.53271484375</v>
       </c>
       <c r="F84">
-        <v>52.06842041015625</v>
+        <v>51.97793197631836</v>
       </c>
       <c r="G84">
-        <v>0.07984685749042759</v>
+        <v>0.0781667595114596</v>
       </c>
       <c r="H84">
-        <v>78.89341483692185</v>
+        <v>82.19577989279111</v>
       </c>
       <c r="I84">
-        <v>0.6691232348779859</v>
+        <v>0.6424283827502563</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2933,22 +2963,22 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>240375.28125</v>
+        <v>1033766.625</v>
       </c>
       <c r="F85">
-        <v>449.519287109375</v>
+        <v>996.1077270507812</v>
       </c>
       <c r="G85">
-        <v>0.2887349033356506</v>
+        <v>0.660519263352327</v>
       </c>
       <c r="H85">
-        <v>490.271463106411</v>
+        <v>1016.727941093299</v>
       </c>
       <c r="I85">
-        <v>-4.970412784057917</v>
+        <v>-24.67622344652625</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2962,22 +2992,22 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>128743.296875</v>
+        <v>149720.921875</v>
       </c>
       <c r="F86">
-        <v>267.3824462890625</v>
+        <v>285.7183227539062</v>
       </c>
       <c r="G86">
-        <v>0.1197823228998887</v>
+        <v>0.1273403823956906</v>
       </c>
       <c r="H86">
-        <v>358.7153345373594</v>
+        <v>386.4278180207803</v>
       </c>
       <c r="I86">
-        <v>0.2370853269064198</v>
+        <v>0.1114289576638776</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2991,22 +3021,22 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E87">
-        <v>11747.9794921875</v>
+        <v>12540.271484375</v>
       </c>
       <c r="F87">
-        <v>87.58120727539062</v>
+        <v>93.27218627929688</v>
       </c>
       <c r="G87">
-        <v>0.1380589035682091</v>
+        <v>0.1519414655324013</v>
       </c>
       <c r="H87">
-        <v>108.3688751513282</v>
+        <v>111.953621815759</v>
       </c>
       <c r="I87">
-        <v>-0.2444676331666916</v>
+        <v>-0.32864301323667</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3020,22 +3050,22 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>2682.8115234375</v>
+        <v>3963.161376953125</v>
       </c>
       <c r="F88">
-        <v>37.40408706665039</v>
+        <v>48.36641311645508</v>
       </c>
       <c r="G88">
-        <v>0.09305758059857459</v>
+        <v>0.1186503642247477</v>
       </c>
       <c r="H88">
-        <v>50.28275394697992</v>
+        <v>62.94276225651642</v>
       </c>
       <c r="I88">
-        <v>0.3193714459323206</v>
+        <v>-0.0065796080152116</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3049,22 +3079,22 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E89">
-        <v>7062.6103515625</v>
+        <v>6919.291015625</v>
       </c>
       <c r="F89">
-        <v>50.79228210449219</v>
+        <v>51.21274948120117</v>
       </c>
       <c r="G89">
-        <v>0.0757472254852974</v>
+        <v>0.07726589903321709</v>
       </c>
       <c r="H89">
-        <v>80.66130331911428</v>
+        <v>79.99852164912426</v>
       </c>
       <c r="I89">
-        <v>0.6553030655199863</v>
+        <v>0.6615143401069378</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3078,22 +3108,22 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E90">
-        <v>274786.78125</v>
+        <v>476366.28125</v>
       </c>
       <c r="F90">
-        <v>484.4457092285156</v>
+        <v>656.30078125</v>
       </c>
       <c r="G90">
-        <v>0.312124981002455</v>
+        <v>0.4281496813623322</v>
       </c>
       <c r="H90">
-        <v>524.158292284674</v>
+        <v>690.1287930984641</v>
       </c>
       <c r="I90">
-        <v>-5.826836337834726</v>
+        <v>-10.83540375034112</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3107,22 +3137,22 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E91">
-        <v>125620.3046875</v>
+        <v>148944.015625</v>
       </c>
       <c r="F91">
-        <v>259.3595886230469</v>
+        <v>282.75244140625</v>
       </c>
       <c r="G91">
-        <v>0.1154693431334837</v>
+        <v>0.1256631769071694</v>
       </c>
       <c r="H91">
-        <v>354.3689474123102</v>
+        <v>385.8867140194134</v>
       </c>
       <c r="I91">
-        <v>0.2557600749253467</v>
+        <v>0.1177046288513982</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3136,22 +3166,22 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E92">
-        <v>10895.998046875</v>
+        <v>11473.5625</v>
       </c>
       <c r="F92">
-        <v>84.05963897705078</v>
+        <v>86.22301483154297</v>
       </c>
       <c r="G92">
-        <v>0.1333762037451671</v>
+        <v>0.1375413473052064</v>
       </c>
       <c r="H92">
-        <v>104.3638190067845</v>
+        <v>107.0888897298501</v>
       </c>
       <c r="I92">
-        <v>-0.1542896353504623</v>
+        <v>-0.2156604486102711</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3165,22 +3195,22 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>2793.095947265625</v>
+        <v>4019.853759765625</v>
       </c>
       <c r="F93">
-        <v>38.17192077636719</v>
+        <v>50.23584747314453</v>
       </c>
       <c r="G93">
-        <v>0.0954122752637639</v>
+        <v>0.1206886686162156</v>
       </c>
       <c r="H93">
-        <v>51.54802646124531</v>
+        <v>63.38103433878933</v>
       </c>
       <c r="I93">
-        <v>0.2913345846152331</v>
+        <v>-0.021113256472813</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3194,22 +3224,22 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E94">
-        <v>6574.8125</v>
+        <v>6786.02685546875</v>
       </c>
       <c r="F94">
-        <v>50.10492706298828</v>
+        <v>51.52444458007812</v>
       </c>
       <c r="G94">
-        <v>0.07630889276445291</v>
+        <v>0.0786975367585217</v>
       </c>
       <c r="H94">
-        <v>77.19685827407994</v>
+        <v>78.62721829095197</v>
       </c>
       <c r="I94">
-        <v>0.6818180437837142</v>
+        <v>0.6707580118070794</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3223,22 +3253,22 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>288385.3125</v>
+        <v>472416.5625</v>
       </c>
       <c r="F95">
-        <v>498.1965942382813</v>
+        <v>651.6963500976562</v>
       </c>
       <c r="G95">
-        <v>0.3215455270341119</v>
+        <v>0.4245508971890779</v>
       </c>
       <c r="H95">
-        <v>536.952387533966</v>
+        <v>687.3114717125719</v>
       </c>
       <c r="I95">
-        <v>-6.165281172515946</v>
+        <v>-10.73391182096198</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3252,22 +3282,1472 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E96">
-        <v>128406.1171875</v>
+        <v>152467.421875</v>
       </c>
       <c r="F96">
-        <v>267.9944763183594</v>
+        <v>289.8931579589844</v>
       </c>
       <c r="G96">
-        <v>0.1199957376666284</v>
+        <v>0.1291192885857905</v>
       </c>
       <c r="H96">
-        <v>358.2118439526923</v>
+        <v>390.4349861446526</v>
       </c>
       <c r="I96">
-        <v>0.2389304768285416</v>
+        <v>0.0969187525270423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>43</v>
+      </c>
+      <c r="E97">
+        <v>13524.634765625</v>
+      </c>
+      <c r="F97">
+        <v>96.23985290527344</v>
+      </c>
+      <c r="G97">
+        <v>0.1539032436434194</v>
+      </c>
+      <c r="H97">
+        <v>116.25514585425</v>
+      </c>
+      <c r="I97">
+        <v>-0.4333588699382893</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>25</v>
+      </c>
+      <c r="E98">
+        <v>2881.595703125</v>
+      </c>
+      <c r="F98">
+        <v>38.99174880981445</v>
+      </c>
+      <c r="G98">
+        <v>0.09786497909191789</v>
+      </c>
+      <c r="H98">
+        <v>52.62039829337903</v>
+      </c>
+      <c r="I98">
+        <v>0.2688128733501522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>48</v>
+      </c>
+      <c r="E99">
+        <v>7090.54736328125</v>
+      </c>
+      <c r="F99">
+        <v>52.87139892578125</v>
+      </c>
+      <c r="G99">
+        <v>0.0806801432181211</v>
+      </c>
+      <c r="H99">
+        <v>80.60869370422644</v>
+      </c>
+      <c r="I99">
+        <v>0.6549228081306067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100">
+        <v>496457.90625</v>
+      </c>
+      <c r="F100">
+        <v>675.2244873046875</v>
+      </c>
+      <c r="G100">
+        <v>0.4420682400785941</v>
+      </c>
+      <c r="H100">
+        <v>704.5876894654695</v>
+      </c>
+      <c r="I100">
+        <v>-11.3306761451717</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>63</v>
+      </c>
+      <c r="E101">
+        <v>134029.59375</v>
+      </c>
+      <c r="F101">
+        <v>270.882080078125</v>
+      </c>
+      <c r="G101">
+        <v>0.1211069141871345</v>
+      </c>
+      <c r="H101">
+        <v>366.0696796732018</v>
+      </c>
+      <c r="I101">
+        <v>0.2061638680570585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>99</v>
+      </c>
+      <c r="E102">
+        <v>11449.0830078125</v>
+      </c>
+      <c r="F102">
+        <v>86.63817596435547</v>
+      </c>
+      <c r="G102">
+        <v>0.1379228513342267</v>
+      </c>
+      <c r="H102">
+        <v>106.98926536725</v>
+      </c>
+      <c r="I102">
+        <v>-0.2124840911185148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>32</v>
+      </c>
+      <c r="E103">
+        <v>2989.56396484375</v>
+      </c>
+      <c r="F103">
+        <v>40.20781707763672</v>
+      </c>
+      <c r="G103">
+        <v>0.0997574562315878</v>
+      </c>
+      <c r="H103">
+        <v>52.89134343675357</v>
+      </c>
+      <c r="I103">
+        <v>0.241592652859792</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>54</v>
+      </c>
+      <c r="E104">
+        <v>7252.58984375</v>
+      </c>
+      <c r="F104">
+        <v>53.97492599487305</v>
+      </c>
+      <c r="G104">
+        <v>0.08318599841951831</v>
+      </c>
+      <c r="H104">
+        <v>81.49098024492838</v>
+      </c>
+      <c r="I104">
+        <v>0.6471700365938777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>755687.5</v>
+      </c>
+      <c r="F105">
+        <v>845.475830078125</v>
+      </c>
+      <c r="G105">
+        <v>0.5580066085012746</v>
+      </c>
+      <c r="H105">
+        <v>869.2794136053476</v>
+      </c>
+      <c r="I105">
+        <v>-17.77091193890326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>48</v>
+      </c>
+      <c r="E106">
+        <v>139417.53125</v>
+      </c>
+      <c r="F106">
+        <v>276.665283203125</v>
+      </c>
+      <c r="G106">
+        <v>0.1234444585526697</v>
+      </c>
+      <c r="H106">
+        <v>373.0478106848949</v>
+      </c>
+      <c r="I106">
+        <v>0.1729862716289059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>67</v>
+      </c>
+      <c r="E107">
+        <v>10598.326171875</v>
+      </c>
+      <c r="F107">
+        <v>81.45613861083984</v>
+      </c>
+      <c r="G107">
+        <v>0.1300085400765144</v>
+      </c>
+      <c r="H107">
+        <v>102.9350980757961</v>
+      </c>
+      <c r="I107">
+        <v>-0.1225134709409778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>2817.332275390625</v>
+      </c>
+      <c r="F108">
+        <v>38.5756721496582</v>
+      </c>
+      <c r="G108">
+        <v>0.096675124821585</v>
+      </c>
+      <c r="H108">
+        <v>52.0267928671666</v>
+      </c>
+      <c r="I108">
+        <v>0.2851205863915718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>53</v>
+      </c>
+      <c r="E109">
+        <v>7260.11767578125</v>
+      </c>
+      <c r="F109">
+        <v>52.41477966308594</v>
+      </c>
+      <c r="G109">
+        <v>0.07903168730637369</v>
+      </c>
+      <c r="H109">
+        <v>82.18908180597924</v>
+      </c>
+      <c r="I109">
+        <v>0.6437040058217389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>45</v>
+      </c>
+      <c r="E110">
+        <v>397259.15625</v>
+      </c>
+      <c r="F110">
+        <v>596.4088745117188</v>
+      </c>
+      <c r="G110">
+        <v>0.3881005023856429</v>
+      </c>
+      <c r="H110">
+        <v>630.2828780982584</v>
+      </c>
+      <c r="I110">
+        <v>-8.865798529701008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>49</v>
+      </c>
+      <c r="E111">
+        <v>139274.765625</v>
+      </c>
+      <c r="F111">
+        <v>280.1679382324219</v>
+      </c>
+      <c r="G111">
+        <v>0.1254678050692288</v>
+      </c>
+      <c r="H111">
+        <v>373.0737776099222</v>
+      </c>
+      <c r="I111">
+        <v>0.1745711808066409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>56</v>
+      </c>
+      <c r="E112">
+        <v>12361.4736328125</v>
+      </c>
+      <c r="F112">
+        <v>91.22210693359376</v>
+      </c>
+      <c r="G112">
+        <v>0.145680289350833</v>
+      </c>
+      <c r="H112">
+        <v>111.1470394850008</v>
+      </c>
+      <c r="I112">
+        <v>-0.3100005816385302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>3551.248046875</v>
+      </c>
+      <c r="F113">
+        <v>45.21559524536133</v>
+      </c>
+      <c r="G113">
+        <v>0.1104481495036011</v>
+      </c>
+      <c r="H113">
+        <v>59.55779501925625</v>
+      </c>
+      <c r="I113">
+        <v>0.0980970198760784</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>33</v>
+      </c>
+      <c r="E114">
+        <v>8139.17724609375</v>
+      </c>
+      <c r="F114">
+        <v>57.16025161743164</v>
+      </c>
+      <c r="G114">
+        <v>0.0873192803063365</v>
+      </c>
+      <c r="H114">
+        <v>87.35776419786238</v>
+      </c>
+      <c r="I114">
+        <v>0.5986982872868706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>34</v>
+      </c>
+      <c r="E115">
+        <v>460504.75</v>
+      </c>
+      <c r="F115">
+        <v>648.0381469726562</v>
+      </c>
+      <c r="G115">
+        <v>0.423516375503</v>
+      </c>
+      <c r="H115">
+        <v>678.5614620763768</v>
+      </c>
+      <c r="I115">
+        <v>-10.44043442416221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>37</v>
+      </c>
+      <c r="E116">
+        <v>146968.03125</v>
+      </c>
+      <c r="F116">
+        <v>284.7383728027344</v>
+      </c>
+      <c r="G116">
+        <v>0.1270179735687175</v>
+      </c>
+      <c r="H116">
+        <v>383.2146405806772</v>
+      </c>
+      <c r="I116">
+        <v>0.1288363793855773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>41</v>
+      </c>
+      <c r="E117">
+        <v>12849.53125</v>
+      </c>
+      <c r="F117">
+        <v>92.85163879394533</v>
+      </c>
+      <c r="G117">
+        <v>0.1476774943659171</v>
+      </c>
+      <c r="H117">
+        <v>113.321555798505</v>
+      </c>
+      <c r="I117">
+        <v>-0.3616787811238209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>23</v>
+      </c>
+      <c r="E118">
+        <v>2927.558837890625</v>
+      </c>
+      <c r="F118">
+        <v>39.46227645874024</v>
+      </c>
+      <c r="G118">
+        <v>0.0997090608244644</v>
+      </c>
+      <c r="H118">
+        <v>53.25861218130069</v>
+      </c>
+      <c r="I118">
+        <v>0.2570756047253167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>68</v>
+      </c>
+      <c r="E119">
+        <v>6550.39111328125</v>
+      </c>
+      <c r="F119">
+        <v>50.71213531494141</v>
+      </c>
+      <c r="G119">
+        <v>0.07736339955902979</v>
+      </c>
+      <c r="H119">
+        <v>77.15957243728973</v>
+      </c>
+      <c r="I119">
+        <v>0.6824904903582093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>565731.6875</v>
+      </c>
+      <c r="F120">
+        <v>723.9963989257812</v>
+      </c>
+      <c r="G120">
+        <v>0.475051156747816</v>
+      </c>
+      <c r="H120">
+        <v>752.1184554095918</v>
+      </c>
+      <c r="I120">
+        <v>-13.05363036405999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>53</v>
+      </c>
+      <c r="E121">
+        <v>122625.3828125</v>
+      </c>
+      <c r="F121">
+        <v>259.5602722167969</v>
+      </c>
+      <c r="G121">
+        <v>0.115907626112847</v>
+      </c>
+      <c r="H121">
+        <v>349.8753966605952</v>
+      </c>
+      <c r="I121">
+        <v>0.2726419231319241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>39</v>
+      </c>
+      <c r="E122">
+        <v>13789.986328125</v>
+      </c>
+      <c r="F122">
+        <v>97.8691864013672</v>
+      </c>
+      <c r="G122">
+        <v>0.157409651901659</v>
+      </c>
+      <c r="H122">
+        <v>117.3872942891018</v>
+      </c>
+      <c r="I122">
+        <v>-0.4615735398819527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>3144.64453125</v>
+      </c>
+      <c r="F123">
+        <v>41.15015029907227</v>
+      </c>
+      <c r="G123">
+        <v>0.1025932505805384</v>
+      </c>
+      <c r="H123">
+        <v>55.84318333971305</v>
+      </c>
+      <c r="I123">
+        <v>0.201685207994591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>61</v>
+      </c>
+      <c r="E124">
+        <v>6744.384765625</v>
+      </c>
+      <c r="F124">
+        <v>49.92962265014648</v>
+      </c>
+      <c r="G124">
+        <v>0.074607646896944</v>
+      </c>
+      <c r="H124">
+        <v>78.26887744091022</v>
+      </c>
+      <c r="I124">
+        <v>0.6733119160446637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>83</v>
+      </c>
+      <c r="E125">
+        <v>355675.25</v>
+      </c>
+      <c r="F125">
+        <v>549.7274780273438</v>
+      </c>
+      <c r="G125">
+        <v>0.354310315046471</v>
+      </c>
+      <c r="H125">
+        <v>596.3690993275926</v>
+      </c>
+      <c r="I125">
+        <v>-7.834343707526719</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
+      </c>
+      <c r="E126">
+        <v>130194.78125</v>
+      </c>
+      <c r="F126">
+        <v>264.5292053222656</v>
+      </c>
+      <c r="G126">
+        <v>0.1178961969801666</v>
+      </c>
+      <c r="H126">
+        <v>360.7371869917972</v>
+      </c>
+      <c r="I126">
+        <v>0.2285128921761161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>63</v>
+      </c>
+      <c r="E127">
+        <v>11023.7919921875</v>
+      </c>
+      <c r="F127">
+        <v>84.06378936767578</v>
+      </c>
+      <c r="G127">
+        <v>0.1325886304316622</v>
+      </c>
+      <c r="H127">
+        <v>104.9829692602191</v>
+      </c>
+      <c r="I127">
+        <v>-0.1674583463548368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>32</v>
+      </c>
+      <c r="E128">
+        <v>2692.53125</v>
+      </c>
+      <c r="F128">
+        <v>37.82160186767578</v>
+      </c>
+      <c r="G128">
+        <v>0.0938675218052305</v>
+      </c>
+      <c r="H128">
+        <v>50.46521900300759</v>
+      </c>
+      <c r="I128">
+        <v>0.3168888464203556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>41</v>
+      </c>
+      <c r="E129">
+        <v>7064.62548828125</v>
+      </c>
+      <c r="F129">
+        <v>50.79271697998047</v>
+      </c>
+      <c r="G129">
+        <v>0.0764265366290043</v>
+      </c>
+      <c r="H129">
+        <v>80.77755751692486</v>
+      </c>
+      <c r="I129">
+        <v>0.6547389576729709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>37</v>
+      </c>
+      <c r="E130">
+        <v>477044.5</v>
+      </c>
+      <c r="F130">
+        <v>653.4506225585938</v>
+      </c>
+      <c r="G130">
+        <v>0.4253157973886984</v>
+      </c>
+      <c r="H130">
+        <v>690.6778866753239</v>
+      </c>
+      <c r="I130">
+        <v>-10.84821426903619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>58</v>
+      </c>
+      <c r="E131">
+        <v>117241.1640625</v>
+      </c>
+      <c r="F131">
+        <v>254.5556335449219</v>
+      </c>
+      <c r="G131">
+        <v>0.1139179648872789</v>
+      </c>
+      <c r="H131">
+        <v>342.3636567815262</v>
+      </c>
+      <c r="I131">
+        <v>0.305486360694957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>69</v>
+      </c>
+      <c r="E132">
+        <v>11040.7421875</v>
+      </c>
+      <c r="F132">
+        <v>84.22175598144531</v>
+      </c>
+      <c r="G132">
+        <v>0.1332207316580758</v>
+      </c>
+      <c r="H132">
+        <v>105.066273817582</v>
+      </c>
+      <c r="I132">
+        <v>-0.1691195783642594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133">
+        <v>2826.549560546875</v>
+      </c>
+      <c r="F133">
+        <v>39.00207138061523</v>
+      </c>
+      <c r="G133">
+        <v>0.0969845177832602</v>
+      </c>
+      <c r="H133">
+        <v>51.75919609305772</v>
+      </c>
+      <c r="I133">
+        <v>0.2828754567271687</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>62</v>
+      </c>
+      <c r="E134">
+        <v>7103.66455078125</v>
+      </c>
+      <c r="F134">
+        <v>51.41776657104492</v>
+      </c>
+      <c r="G134">
+        <v>0.0775109284521884</v>
+      </c>
+      <c r="H134">
+        <v>80.42060042535644</v>
+      </c>
+      <c r="I134">
+        <v>0.6554125765630651</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>39</v>
+      </c>
+      <c r="E135">
+        <v>429399.9375</v>
+      </c>
+      <c r="F135">
+        <v>622.3036499023438</v>
+      </c>
+      <c r="G135">
+        <v>0.4056338719389565</v>
+      </c>
+      <c r="H135">
+        <v>655.2802472533649</v>
+      </c>
+      <c r="I135">
+        <v>-9.664808876783637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>56</v>
+      </c>
+      <c r="E136">
+        <v>129226.078125</v>
+      </c>
+      <c r="F136">
+        <v>277.5005187988281</v>
+      </c>
+      <c r="G136">
+        <v>0.1263293974383774</v>
+      </c>
+      <c r="H136">
+        <v>359.1857998888491</v>
+      </c>
+      <c r="I136">
+        <v>0.2335289589937829</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>53</v>
+      </c>
+      <c r="E137">
+        <v>11486.625</v>
+      </c>
+      <c r="F137">
+        <v>86.50559234619141</v>
+      </c>
+      <c r="G137">
+        <v>0.1371174039903586</v>
+      </c>
+      <c r="H137">
+        <v>107.1514790335892</v>
+      </c>
+      <c r="I137">
+        <v>-0.2169990075082332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>3260.22412109375</v>
+      </c>
+      <c r="F138">
+        <v>42.76593399047852</v>
+      </c>
+      <c r="G138">
+        <v>0.1047803914368084</v>
+      </c>
+      <c r="H138">
+        <v>57.02996931292577</v>
+      </c>
+      <c r="I138">
+        <v>0.1721114581236068</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>41</v>
+      </c>
+      <c r="E139">
+        <v>7471.39599609375</v>
+      </c>
+      <c r="F139">
+        <v>53.89161682128906</v>
+      </c>
+      <c r="G139">
+        <v>0.08245036026335791</v>
+      </c>
+      <c r="H139">
+        <v>83.14845067376822</v>
+      </c>
+      <c r="I139">
+        <v>0.6344725711594358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>1136151</v>
+      </c>
+      <c r="F140">
+        <v>1046.300659179688</v>
+      </c>
+      <c r="G140">
+        <v>0.6947854091932062</v>
+      </c>
+      <c r="H140">
+        <v>1065.812480029373</v>
+      </c>
+      <c r="I140">
+        <v>-27.2211009339137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141">
+        <v>145106.15625</v>
+      </c>
+      <c r="F141">
+        <v>282.6969604492188</v>
+      </c>
+      <c r="G141">
+        <v>0.1267373509662231</v>
+      </c>
+      <c r="H141">
+        <v>380.9016687875706</v>
+      </c>
+      <c r="I141">
+        <v>0.1406170142783503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>48</v>
+      </c>
+      <c r="E142">
+        <v>12102.2109375</v>
+      </c>
+      <c r="F142">
+        <v>89.35620880126953</v>
+      </c>
+      <c r="G142">
+        <v>0.1411459028656941</v>
+      </c>
+      <c r="H142">
+        <v>109.9829298329713</v>
+      </c>
+      <c r="I142">
+        <v>-0.2822716827543206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>30</v>
+      </c>
+      <c r="E143">
+        <v>2857.15869140625</v>
+      </c>
+      <c r="F143">
+        <v>38.91653442382812</v>
+      </c>
+      <c r="G143">
+        <v>0.0973347538986503</v>
+      </c>
+      <c r="H143">
+        <v>52.09400575009672</v>
+      </c>
+      <c r="I143">
+        <v>0.2750869199056253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>58</v>
+      </c>
+      <c r="E144">
+        <v>6920.34912109375</v>
+      </c>
+      <c r="F144">
+        <v>51.04093933105469</v>
+      </c>
+      <c r="G144">
+        <v>0.0769209465080954</v>
+      </c>
+      <c r="H144">
+        <v>79.59606365290601</v>
+      </c>
+      <c r="I144">
+        <v>0.6633129111338452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>38</v>
+      </c>
+      <c r="E145">
+        <v>420658.40625</v>
+      </c>
+      <c r="F145">
+        <v>616.0314331054688</v>
+      </c>
+      <c r="G145">
+        <v>0.4015623169752693</v>
+      </c>
+      <c r="H145">
+        <v>648.5582960861522</v>
+      </c>
+      <c r="I145">
+        <v>-9.449452621083374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <v>165801.3125</v>
+      </c>
+      <c r="F146">
+        <v>306.791748046875</v>
+      </c>
+      <c r="G146">
+        <v>0.1373641200836384</v>
+      </c>
+      <c r="H146">
+        <v>407.146707959932</v>
+      </c>
+      <c r="I146">
+        <v>0.0179239398929017</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +4757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3306,25 +4786,25 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3332,31 +4812,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>248866.5550292969</v>
+        <v>139187.867578125</v>
       </c>
       <c r="D2">
-        <v>304.0770133972168</v>
+        <v>233.2083259582519</v>
       </c>
       <c r="E2">
-        <v>0.2363626445501163</v>
+        <v>0.1866976296412254</v>
       </c>
       <c r="F2">
-        <v>337.6151805669003</v>
+        <v>269.1717191785073</v>
       </c>
       <c r="G2">
-        <v>-5.140410293614358</v>
+        <v>-2.462633224432884</v>
       </c>
       <c r="H2">
-        <v>41.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I2">
-        <v>466941.6936905075</v>
+        <v>238395.5570125269</v>
       </c>
       <c r="J2">
-        <v>410.5772822549598</v>
+        <v>283.2469335233396</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -3365,10 +4845,10 @@
         <v>16</v>
       </c>
       <c r="M2">
-        <v>4087.487060546875</v>
+        <v>3913.98388671875</v>
       </c>
       <c r="N2">
-        <v>49.1632194519043</v>
+        <v>47.86849594116211</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3376,43 +4856,43 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>111510.80703125</v>
+        <v>158938.8000976563</v>
       </c>
       <c r="D3">
-        <v>218.7537925720215</v>
+        <v>246.8836647033691</v>
       </c>
       <c r="E3">
-        <v>0.1778375087292061</v>
+        <v>0.1939729218075528</v>
       </c>
       <c r="F3">
-        <v>257.0190248029099</v>
+        <v>282.0983814738233</v>
       </c>
       <c r="G3">
-        <v>-1.66702710894577</v>
+        <v>-2.890168850842406</v>
       </c>
       <c r="H3">
-        <v>68.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I3">
-        <v>160051.7472195965</v>
+        <v>277903.9840965926</v>
       </c>
       <c r="J3">
-        <v>224.5274520276336</v>
+        <v>310.4086889982332</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>4326.2744140625</v>
+        <v>3120.37060546875</v>
       </c>
       <c r="N3">
-        <v>52.38724136352539</v>
+        <v>41.18591690063477</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3420,43 +4900,43 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>156235.5081054688</v>
+        <v>160894.489453125</v>
       </c>
       <c r="D4">
-        <v>251.7835563659668</v>
+        <v>253.4454399108887</v>
       </c>
       <c r="E4">
-        <v>0.1994729060120309</v>
+        <v>0.1953066198823045</v>
       </c>
       <c r="F4">
-        <v>290.4073905975997</v>
+        <v>296.4807555814347</v>
       </c>
       <c r="G4">
-        <v>-2.697879166197183</v>
+        <v>-2.570020536969787</v>
       </c>
       <c r="H4">
-        <v>42.2</v>
+        <v>62.8</v>
       </c>
       <c r="I4">
-        <v>248372.2451233625</v>
+        <v>238107.7945454493</v>
       </c>
       <c r="J4">
-        <v>291.5101764794626</v>
+        <v>285.1532291411983</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>4191.95947265625</v>
+        <v>4161.42138671875</v>
       </c>
       <c r="N4">
-        <v>50.22980117797852</v>
+        <v>49.46764373779297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3464,43 +4944,43 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>103268.7760253906</v>
+        <v>219132.2216796875</v>
       </c>
       <c r="D5">
-        <v>206.553874206543</v>
+        <v>283.8322731018067</v>
       </c>
       <c r="E5">
-        <v>0.1670416856590227</v>
+        <v>0.2120039793810279</v>
       </c>
       <c r="F5">
-        <v>248.3496574117307</v>
+        <v>336.2549403105459</v>
       </c>
       <c r="G5">
-        <v>-1.41107440637328</v>
+        <v>-3.781475079440732</v>
       </c>
       <c r="H5">
-        <v>61.8</v>
+        <v>47.2</v>
       </c>
       <c r="I5">
-        <v>143877.5328557932</v>
+        <v>338818.1892205265</v>
       </c>
       <c r="J5">
-        <v>212.3063750374081</v>
+        <v>343.2055430936943</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>3625.796142578125</v>
+        <v>3121.62939453125</v>
       </c>
       <c r="N5">
-        <v>44.98456192016602</v>
+        <v>40.29271697998047</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3508,43 +4988,43 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>124498.6916503906</v>
+        <v>141870.1409667969</v>
       </c>
       <c r="D6">
-        <v>219.5006889343262</v>
+        <v>261.5030288696289</v>
       </c>
       <c r="E6">
-        <v>0.1698813621648134</v>
+        <v>0.2379994592089473</v>
       </c>
       <c r="F6">
-        <v>258.0459709826659</v>
+        <v>300.4352947644451</v>
       </c>
       <c r="G6">
-        <v>-1.921198165118248</v>
+        <v>-3.570786992739164</v>
       </c>
       <c r="H6">
-        <v>38.4</v>
+        <v>58.6</v>
       </c>
       <c r="I6">
-        <v>199933.5148731802</v>
+        <v>189314.4471008205</v>
       </c>
       <c r="J6">
-        <v>260.1461080331503</v>
+        <v>245.5778988767005</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>2726.366455078125</v>
+        <v>3190.403564453125</v>
       </c>
       <c r="N6">
-        <v>37.35689163208008</v>
+        <v>41.86094284057617</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3552,43 +5032,43 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>103771.7053222656</v>
+        <v>338587.6510742187</v>
       </c>
       <c r="D7">
-        <v>201.6623252868652</v>
+        <v>357.2299659729004</v>
       </c>
       <c r="E7">
-        <v>0.1594259505564657</v>
+        <v>0.267594593395191</v>
       </c>
       <c r="F7">
-        <v>238.6858165786494</v>
+        <v>403.7777452943855</v>
       </c>
       <c r="G7">
-        <v>-1.47047011219799</v>
+        <v>-6.644480342664433</v>
       </c>
       <c r="H7">
-        <v>53.4</v>
+        <v>38</v>
       </c>
       <c r="I7">
-        <v>162569.8888028261</v>
+        <v>567312.348910292</v>
       </c>
       <c r="J7">
-        <v>230.5780915448316</v>
+        <v>460.8902010171989</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>2811.182373046875</v>
+        <v>4410.0439453125</v>
       </c>
       <c r="N7">
-        <v>38.29426574707031</v>
+        <v>51.33213424682617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3596,43 +5076,43 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>92195.72919921875</v>
+        <v>200167.3079101563</v>
       </c>
       <c r="D8">
-        <v>193.9561012268067</v>
+        <v>275.1842193603516</v>
       </c>
       <c r="E8">
-        <v>0.1548829315051713</v>
+        <v>0.2125230612460861</v>
       </c>
       <c r="F8">
-        <v>236.0819144536257</v>
+        <v>316.6003627299231</v>
       </c>
       <c r="G8">
-        <v>-1.033949411799944</v>
+        <v>-3.790973584725634</v>
       </c>
       <c r="H8">
-        <v>47.4</v>
+        <v>51.2</v>
       </c>
       <c r="I8">
-        <v>119970.9469980475</v>
+        <v>343886.4072095952</v>
       </c>
       <c r="J8">
-        <v>189.794284539726</v>
+        <v>344.9988603243421</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>2879.6220703125</v>
+        <v>4169.19287109375</v>
       </c>
       <c r="N8">
-        <v>39.31405258178711</v>
+        <v>51.07997512817383</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3640,43 +5120,43 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>84380.0974609375</v>
+        <v>156447.5838378906</v>
       </c>
       <c r="D9">
-        <v>183.9165748596191</v>
+        <v>250.2441337585449</v>
       </c>
       <c r="E9">
-        <v>0.146891606757604</v>
+        <v>0.1978058938739946</v>
       </c>
       <c r="F9">
-        <v>223.5680344228813</v>
+        <v>291.6865314660556</v>
       </c>
       <c r="G9">
-        <v>-0.9681738769247528</v>
+        <v>-2.691758547622447</v>
       </c>
       <c r="H9">
-        <v>50.6</v>
+        <v>53.6</v>
       </c>
       <c r="I9">
-        <v>118198.2707431948</v>
+        <v>244859.8180302028</v>
       </c>
       <c r="J9">
-        <v>190.0512420234691</v>
+        <v>284.7157231956694</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>2682.8115234375</v>
+        <v>3354.867431640625</v>
       </c>
       <c r="N9">
-        <v>37.40408706665039</v>
+        <v>42.77275466918945</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3684,43 +5164,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>85864.425</v>
+        <v>241830.0829589844</v>
       </c>
       <c r="D10">
-        <v>190.1151428222656</v>
+        <v>297.1540412902832</v>
       </c>
       <c r="E10">
-        <v>0.1534076689655146</v>
+        <v>0.2301493304667286</v>
       </c>
       <c r="F10">
-        <v>228.2852924690373</v>
+        <v>333.6193537064602</v>
       </c>
       <c r="G10">
-        <v>-0.967399708638949</v>
+        <v>-4.890837922603644</v>
       </c>
       <c r="H10">
-        <v>47.8</v>
+        <v>28.2</v>
       </c>
       <c r="I10">
-        <v>114119.8093952528</v>
+        <v>446921.9220306177</v>
       </c>
       <c r="J10">
-        <v>186.2223387143664</v>
+        <v>402.4517716651005</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>2615.09228515625</v>
+        <v>3969.239501953125</v>
       </c>
       <c r="N10">
-        <v>36.90458679199219</v>
+        <v>50.90125274658203</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3728,31 +5208,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>83716.69526367188</v>
+        <v>142136.9103027344</v>
       </c>
       <c r="D11">
-        <v>183.7971427917481</v>
+        <v>233.316544342041</v>
       </c>
       <c r="E11">
-        <v>0.145181934083457</v>
+        <v>0.1831417475220149</v>
       </c>
       <c r="F11">
-        <v>224.2381545135899</v>
+        <v>269.1467184974564</v>
       </c>
       <c r="G11">
-        <v>-0.8141777216009937</v>
+        <v>-2.440620225393673</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I11">
-        <v>109163.9788116206</v>
+        <v>242018.2891215574</v>
       </c>
       <c r="J11">
-        <v>181.31062272739</v>
+        <v>288.1447943354291</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -3761,10 +5241,10 @@
         <v>23</v>
       </c>
       <c r="M11">
-        <v>2753.206787109375</v>
+        <v>2927.558837890625</v>
       </c>
       <c r="N11">
-        <v>38.07322692871094</v>
+        <v>39.46227645874024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3772,43 +5252,43 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>101777.1966308594</v>
+        <v>126304.9360351562</v>
       </c>
       <c r="D12">
-        <v>202.0428337097168</v>
+        <v>225.2748947143555</v>
       </c>
       <c r="E12">
-        <v>0.1601781226197441</v>
+        <v>0.1787964136464976</v>
       </c>
       <c r="F12">
-        <v>238.3366986995769</v>
+        <v>263.9677402718347</v>
       </c>
       <c r="G12">
-        <v>-1.419325790041677</v>
+        <v>-1.984960663850443</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>33.8</v>
       </c>
       <c r="I12">
-        <v>156323.0907708772</v>
+        <v>196297.7370266577</v>
       </c>
       <c r="J12">
-        <v>225.5807506823849</v>
+        <v>255.4010117183601</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>2924.314697265625</v>
+        <v>3551.248046875</v>
       </c>
       <c r="N12">
-        <v>39.3105697631836</v>
+        <v>45.21559524536133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3816,43 +5296,43 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>110242.6134277344</v>
+        <v>260695.0802734375</v>
       </c>
       <c r="D13">
-        <v>209.7199638366699</v>
+        <v>302.4321525573731</v>
       </c>
       <c r="E13">
-        <v>0.168226444074779</v>
+        <v>0.2291741831699909</v>
       </c>
       <c r="F13">
-        <v>243.7458662970428</v>
+        <v>338.8088095674453</v>
       </c>
       <c r="G13">
-        <v>-1.735258941961272</v>
+        <v>-5.298179779572108</v>
       </c>
       <c r="H13">
-        <v>44.2</v>
+        <v>29.4</v>
       </c>
       <c r="I13">
-        <v>181553.9202475992</v>
+        <v>493022.2257571457</v>
       </c>
       <c r="J13">
-        <v>244.0344380138711</v>
+        <v>427.0693899489581</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>2715.838134765625</v>
+        <v>3260.22412109375</v>
       </c>
       <c r="N13">
-        <v>37.37599182128906</v>
+        <v>42.76593399047852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3860,43 +5340,43 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>87411.06723632812</v>
+        <v>85087.40659179687</v>
       </c>
       <c r="D14">
-        <v>187.7055114746094</v>
+        <v>187.2726188659668</v>
       </c>
       <c r="E14">
-        <v>0.1493277272948249</v>
+        <v>0.1497047690717355</v>
       </c>
       <c r="F14">
-        <v>225.6545870457536</v>
+        <v>224.2467031773037</v>
       </c>
       <c r="G14">
-        <v>-1.021497540527784</v>
+        <v>-0.978771072820475</v>
       </c>
       <c r="H14">
-        <v>56.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I14">
-        <v>124117.3822815942</v>
+        <v>119345.0953083747</v>
       </c>
       <c r="J14">
-        <v>196.7788814982108</v>
+        <v>191.8399490888578</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>2793.095947265625</v>
+        <v>2778.181884765625</v>
       </c>
       <c r="N14">
-        <v>38.17192077636719</v>
+        <v>38.24588012695312</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3904,43 +5384,43 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>94794.07641601562</v>
+        <v>129432.6854980469</v>
       </c>
       <c r="D15">
-        <v>194.097403717041</v>
+        <v>225.9145629882813</v>
       </c>
       <c r="E15">
-        <v>0.1523139189372236</v>
+        <v>0.1781195476909624</v>
       </c>
       <c r="F15">
-        <v>235.5308874800778</v>
+        <v>265.3687200433632</v>
       </c>
       <c r="G15">
-        <v>-1.069395535934201</v>
+        <v>-2.040601752342188</v>
       </c>
       <c r="H15">
-        <v>52.2</v>
+        <v>36.8</v>
       </c>
       <c r="I15">
-        <v>128389.2370519725</v>
+        <v>201775.5404543118</v>
       </c>
       <c r="J15">
-        <v>199.7074777498568</v>
+        <v>257.9593204162142</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>2773.149658203125</v>
+        <v>4019.853759765625</v>
       </c>
       <c r="N15">
-        <v>38.14450454711914</v>
+        <v>50.23584747314453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3948,43 +5428,43 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>95976.04321289062</v>
+        <v>130796.8555664062</v>
       </c>
       <c r="D16">
-        <v>195.8899162292481</v>
+        <v>226.8419136047363</v>
       </c>
       <c r="E16">
-        <v>0.1543505936314414</v>
+        <v>0.1791247040438374</v>
       </c>
       <c r="F16">
-        <v>235.9124590603946</v>
+        <v>264.0283213981053</v>
       </c>
       <c r="G16">
-        <v>-1.196438019580274</v>
+        <v>-2.126827093114433</v>
       </c>
       <c r="H16">
-        <v>47.4</v>
+        <v>41.2</v>
       </c>
       <c r="I16">
-        <v>136471.9595757221</v>
+        <v>211622.7733195779</v>
       </c>
       <c r="J16">
-        <v>207.4583062495562</v>
+        <v>267.2062832863788</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>3037.150634765625</v>
+        <v>2881.595703125</v>
       </c>
       <c r="N16">
-        <v>42.13718795776367</v>
+        <v>38.99174880981445</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3992,43 +5472,43 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>77960.16416015624</v>
+        <v>123013.3225585937</v>
       </c>
       <c r="D17">
-        <v>178.3860527038574</v>
+        <v>216.1368728637695</v>
       </c>
       <c r="E17">
-        <v>0.1434599335219451</v>
+        <v>0.1684232902283749</v>
       </c>
       <c r="F17">
-        <v>216.8146255206616</v>
+        <v>253.8534578474003</v>
       </c>
       <c r="G17">
-        <v>-0.7872174350456431</v>
+        <v>-1.947711690120549</v>
       </c>
       <c r="H17">
-        <v>62.4</v>
+        <v>46.2</v>
       </c>
       <c r="I17">
-        <v>105052.8594837377</v>
+        <v>203613.7523254298</v>
       </c>
       <c r="J17">
-        <v>177.3698052983657</v>
+        <v>259.4694789295662</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>2718.15966796875</v>
+        <v>2692.53125</v>
       </c>
       <c r="N17">
-        <v>37.85344314575195</v>
+        <v>37.82160186767578</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4036,43 +5516,43 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>114550.2278320312</v>
+        <v>121667.8875</v>
       </c>
       <c r="D18">
-        <v>214.306950378418</v>
+        <v>220.4273727416992</v>
       </c>
       <c r="E18">
-        <v>0.1721987570747309</v>
+        <v>0.1708656080662695</v>
       </c>
       <c r="F18">
-        <v>250.6026777551653</v>
+        <v>259.4756006564116</v>
       </c>
       <c r="G18">
-        <v>-1.790171581743007</v>
+        <v>-1.755080106581065</v>
       </c>
       <c r="H18">
-        <v>43.8</v>
+        <v>40.8</v>
       </c>
       <c r="I18">
-        <v>181346.699171994</v>
+        <v>180714.3559801427</v>
       </c>
       <c r="J18">
-        <v>243.7808818335799</v>
+        <v>246.363033025091</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>2906.97216796875</v>
+        <v>2857.15869140625</v>
       </c>
       <c r="N18">
-        <v>39.237548828125</v>
+        <v>38.91653442382812</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4080,43 +5560,43 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>96552.357421875</v>
+        <v>111441.9395996094</v>
       </c>
       <c r="D19">
-        <v>197.7709609985351</v>
+        <v>209.8046806335449</v>
       </c>
       <c r="E19">
-        <v>0.1564004505224502</v>
+        <v>0.1638567319318689</v>
       </c>
       <c r="F19">
-        <v>238.057730403505</v>
+        <v>248.1015256914245</v>
       </c>
       <c r="G19">
-        <v>-1.164307011928449</v>
+        <v>-1.576983245524407</v>
       </c>
       <c r="H19">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I19">
-        <v>132968.5771118791</v>
+        <v>169770.977527968</v>
       </c>
       <c r="J19">
-        <v>204.8911898420522</v>
+        <v>237.1592783644246</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>2832.1279296875</v>
+        <v>2817.332275390625</v>
       </c>
       <c r="N19">
-        <v>38.9943733215332</v>
+        <v>38.5756721496582</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4124,43 +5604,483 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>116700.8485351563</v>
+        <v>183359.2536132812</v>
       </c>
       <c r="D20">
-        <v>222.644743347168</v>
+        <v>260.592406463623</v>
       </c>
       <c r="E20">
-        <v>0.1789163725504772</v>
+        <v>0.2004634746078554</v>
       </c>
       <c r="F20">
-        <v>264.4119615274118</v>
+        <v>296.739762667835</v>
       </c>
       <c r="G20">
-        <v>-1.665804518245112</v>
+        <v>-3.384329413787839</v>
       </c>
       <c r="H20">
-        <v>56.8</v>
+        <v>48.6</v>
       </c>
       <c r="I20">
-        <v>159152.9074196173</v>
+        <v>325034.7617185961</v>
       </c>
       <c r="J20">
-        <v>224.6456899642567</v>
+        <v>340.5389777134112</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>2989.56396484375</v>
+      </c>
+      <c r="N20">
+        <v>40.20781707763672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>115919.3943847656</v>
+      </c>
+      <c r="D21">
+        <v>214.8891525268555</v>
+      </c>
+      <c r="E21">
+        <v>0.1679358894541716</v>
+      </c>
+      <c r="F21">
+        <v>250.342423495642</v>
+      </c>
+      <c r="G21">
+        <v>-1.732422292572776</v>
+      </c>
+      <c r="H21">
+        <v>52.2</v>
+      </c>
+      <c r="I21">
+        <v>183082.9764344828</v>
+      </c>
+      <c r="J21">
+        <v>247.305420340203</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>2826.549560546875</v>
+      </c>
+      <c r="N21">
+        <v>39.00207138061523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>129746.6041503906</v>
+      </c>
+      <c r="D22">
+        <v>226.3809143066406</v>
+      </c>
+      <c r="E22">
+        <v>0.1803341174119735</v>
+      </c>
+      <c r="F22">
+        <v>266.1820825678554</v>
+      </c>
+      <c r="G22">
+        <v>-2.078281480526934</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <v>203198.8489785462</v>
+      </c>
+      <c r="J22">
+        <v>258.8917839269422</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>3963.161376953125</v>
+      </c>
+      <c r="N22">
+        <v>48.36641311645508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>101909.809375</v>
+      </c>
+      <c r="D23">
+        <v>200.6411285400391</v>
+      </c>
+      <c r="E23">
+        <v>0.1613634122811558</v>
+      </c>
+      <c r="F23">
+        <v>241.721128277823</v>
+      </c>
+      <c r="G23">
+        <v>-1.43848144623866</v>
+      </c>
+      <c r="H23">
+        <v>49</v>
+      </c>
+      <c r="I23">
+        <v>151470.3415945497</v>
+      </c>
+      <c r="J23">
+        <v>214.8583067931739</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>3144.64453125</v>
+      </c>
+      <c r="N23">
+        <v>41.15015029907227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>162843.8879882813</v>
+      </c>
+      <c r="D24">
+        <v>247.2320487976074</v>
+      </c>
+      <c r="E24">
+        <v>0.1935061331539094</v>
+      </c>
+      <c r="F24">
+        <v>288.7383029922421</v>
+      </c>
+      <c r="G24">
+        <v>-2.935771039276339</v>
+      </c>
+      <c r="H24">
+        <v>56.4</v>
+      </c>
+      <c r="I24">
+        <v>277193.2020127711</v>
+      </c>
+      <c r="J24">
+        <v>304.1508791929915</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>3283.640625</v>
+      </c>
+      <c r="N24">
+        <v>41.0859260559082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>296894.3466308594</v>
+      </c>
+      <c r="D25">
+        <v>337.9976661682129</v>
+      </c>
+      <c r="E25">
+        <v>0.2443668123137681</v>
+      </c>
+      <c r="F25">
+        <v>394.990806767824</v>
+      </c>
+      <c r="G25">
+        <v>-4.507231145237497</v>
+      </c>
+      <c r="H25">
+        <v>43.6</v>
+      </c>
+      <c r="I25">
+        <v>401429.5065610249</v>
+      </c>
+      <c r="J25">
+        <v>383.1669824176801</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>4088.483154296875</v>
+      </c>
+      <c r="N25">
+        <v>49.86845779418945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>152460.1631347656</v>
+      </c>
+      <c r="D26">
+        <v>243.3716125488281</v>
+      </c>
+      <c r="E26">
+        <v>0.1887539962601965</v>
+      </c>
+      <c r="F26">
+        <v>286.5154641624789</v>
+      </c>
+      <c r="G26">
+        <v>-2.507645997283766</v>
+      </c>
+      <c r="H26">
+        <v>59.6</v>
+      </c>
+      <c r="I26">
+        <v>237195.0545545104</v>
+      </c>
+      <c r="J26">
+        <v>281.099599064477</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>3025.489013671875</v>
+      </c>
+      <c r="N26">
+        <v>40.07379150390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>276936.6244140625</v>
+      </c>
+      <c r="D27">
+        <v>311.0971916198731</v>
+      </c>
+      <c r="E27">
+        <v>0.2381290840765765</v>
+      </c>
+      <c r="F27">
+        <v>350.6012064752377</v>
+      </c>
+      <c r="G27">
+        <v>-5.76414482923779</v>
+      </c>
+      <c r="H27">
+        <v>50.2</v>
+      </c>
+      <c r="I27">
+        <v>526311.754558148</v>
+      </c>
+      <c r="J27">
+        <v>438.5090197947296</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>3924.5009765625</v>
+      </c>
+      <c r="N27">
+        <v>46.21036148071289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>400104.5002929688</v>
+      </c>
+      <c r="D28">
+        <v>368.7985809326172</v>
+      </c>
+      <c r="E28">
+        <v>0.2739668423369297</v>
+      </c>
+      <c r="F28">
+        <v>407.5092732932844</v>
+      </c>
+      <c r="G28">
+        <v>-8.618269878022868</v>
+      </c>
+      <c r="H28">
+        <v>59.8</v>
+      </c>
+      <c r="I28">
+        <v>776483.5405483601</v>
+      </c>
+      <c r="J28">
+        <v>545.402299746678</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>3158.03662109375</v>
+      </c>
+      <c r="N28">
+        <v>41.56772232055664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="M20">
-        <v>4299.62060546875</v>
-      </c>
-      <c r="N20">
-        <v>51.75999450683594</v>
+      <c r="C29">
+        <v>126356.3241210938</v>
+      </c>
+      <c r="D29">
+        <v>228.614395904541</v>
+      </c>
+      <c r="E29">
+        <v>0.182842727478535</v>
+      </c>
+      <c r="F29">
+        <v>266.8660926655479</v>
+      </c>
+      <c r="G29">
+        <v>-2.045267198598501</v>
+      </c>
+      <c r="H29">
+        <v>57.4</v>
+      </c>
+      <c r="I29">
+        <v>194128.7272430611</v>
+      </c>
+      <c r="J29">
+        <v>251.2783575680513</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>4228.27880859375</v>
+      </c>
+      <c r="N29">
+        <v>52.15508651733398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>115174.0463867188</v>
+      </c>
+      <c r="D30">
+        <v>224.8634353637695</v>
+      </c>
+      <c r="E30">
+        <v>0.1810721154750344</v>
+      </c>
+      <c r="F30">
+        <v>264.5891552999481</v>
+      </c>
+      <c r="G30">
+        <v>-1.665065410253711</v>
+      </c>
+      <c r="H30">
+        <v>62.8</v>
+      </c>
+      <c r="I30">
+        <v>157424.863089094</v>
+      </c>
+      <c r="J30">
+        <v>223.6667666745398</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>4369.36181640625</v>
+      </c>
+      <c r="N30">
+        <v>52.91778564453125</v>
       </c>
     </row>
   </sheetData>

--- a/Eksperimen 6/ADRO/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ADRO/training_results_with_epoch.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\Eksperimen 6\ADRO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD40AB-3B3F-485B-8ED6-FA2B97155857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -158,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,24 +236,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -300,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,14 +545,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I119" sqref="A119:I119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -562,7 +608,7 @@
         <v>13244.58203125</v>
       </c>
       <c r="F2">
-        <v>94.26763916015624</v>
+        <v>94.267639160156236</v>
       </c>
       <c r="G2">
         <v>0.1497542726865895</v>
@@ -574,7 +620,7 @@
         <v>-0.4039003090240525</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -591,19 +637,19 @@
         <v>3924.5009765625</v>
       </c>
       <c r="F3">
-        <v>46.21036148071289</v>
+        <v>46.210361480712891</v>
       </c>
       <c r="G3">
         <v>0.1180686806099806</v>
       </c>
       <c r="H3">
-        <v>62.59663533304472</v>
+        <v>62.596635333044723</v>
       </c>
       <c r="I3">
-        <v>0.003259520668164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3.2595206681639999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,19 +666,19 @@
         <v>8918.8671875</v>
       </c>
       <c r="F4">
-        <v>56.53035736083984</v>
+        <v>56.530357360839837</v>
       </c>
       <c r="G4">
-        <v>0.083539420018983</v>
+        <v>8.3539420018982999E-2</v>
       </c>
       <c r="H4">
-        <v>91.97087827097796</v>
+        <v>91.970878270977963</v>
       </c>
       <c r="I4">
-        <v>0.5567850250912665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.55678502509126648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -652,16 +698,20 @@
         <v>1076.806274414062</v>
       </c>
       <c r="G5">
-        <v>0.7134307315699316</v>
+        <v>0.71343073156993164</v>
       </c>
       <c r="H5">
-        <v>1101.0222776155</v>
+        <v>1101.0222776154999</v>
       </c>
       <c r="I5">
-        <v>-29.11092915596901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-29.110929155969011</v>
+      </c>
+      <c r="K5">
+        <f>MAX(I2:I146)</f>
+        <v>0.6824904903582093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -678,19 +728,19 @@
         <v>146228.671875</v>
       </c>
       <c r="F6">
-        <v>281.6713256835937</v>
+        <v>281.67132568359369</v>
       </c>
       <c r="G6">
-        <v>0.1258523154973978</v>
+        <v>0.12585231549739781</v>
       </c>
       <c r="H6">
         <v>382.3793538492028</v>
       </c>
       <c r="I6">
-        <v>0.1340607730446823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.13406077304468231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -707,19 +757,19 @@
         <v>13855.00390625</v>
       </c>
       <c r="F7">
-        <v>98.02194213867188</v>
+        <v>98.021942138671875</v>
       </c>
       <c r="G7">
-        <v>0.1574185526092076</v>
+        <v>0.15741855260920759</v>
       </c>
       <c r="H7">
-        <v>117.6695848682293</v>
+        <v>117.66958486822929</v>
       </c>
       <c r="I7">
-        <v>-0.4682622209264776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.46826222092647762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -736,19 +786,19 @@
         <v>3120.37060546875</v>
       </c>
       <c r="F8">
-        <v>41.18591690063477</v>
+        <v>41.185916900634773</v>
       </c>
       <c r="G8">
-        <v>0.1030023855158922</v>
+        <v>0.10300238551589221</v>
       </c>
       <c r="H8">
-        <v>54.9784025737908</v>
+        <v>54.978402573790802</v>
       </c>
       <c r="I8">
         <v>0.2081599901169234</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -765,19 +815,19 @@
         <v>7495.1962890625</v>
       </c>
       <c r="F9">
-        <v>52.55439758300781</v>
+        <v>52.554397583007813</v>
       </c>
       <c r="G9">
-        <v>0.0785053852474366</v>
+        <v>7.8505385247436596E-2</v>
       </c>
       <c r="H9">
         <v>83.4354978092274</v>
       </c>
       <c r="I9">
-        <v>0.6324552557971738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.63245525579717377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -797,16 +847,16 @@
         <v>778.7572021484375</v>
       </c>
       <c r="G10">
-        <v>0.5123648922441872</v>
+        <v>0.51236489224418724</v>
       </c>
       <c r="H10">
-        <v>805.0330041835149</v>
+        <v>805.03300418351489</v>
       </c>
       <c r="I10">
-        <v>-15.09983434112772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-15.099834341127719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -823,19 +873,19 @@
         <v>122100.0546875</v>
       </c>
       <c r="F11">
-        <v>263.8988647460937</v>
+        <v>263.89886474609369</v>
       </c>
       <c r="G11">
         <v>0.1185733934210404</v>
       </c>
       <c r="H11">
-        <v>349.3754179343541</v>
+        <v>349.37541793435412</v>
       </c>
       <c r="I11">
-        <v>0.276637061928074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.27663706192807402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -855,16 +905,16 @@
         <v>115.1800155639648</v>
       </c>
       <c r="G12">
-        <v>0.1847585329586056</v>
+        <v>0.18475853295860559</v>
       </c>
       <c r="H12">
-        <v>134.2594383939122</v>
+        <v>134.25943839391221</v>
       </c>
       <c r="I12">
-        <v>-0.9094624124878692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.90946241248786919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -881,19 +931,19 @@
         <v>4410.0439453125</v>
       </c>
       <c r="F13">
-        <v>51.33213424682617</v>
+        <v>51.332134246826172</v>
       </c>
       <c r="G13">
-        <v>0.1276746104719683</v>
+        <v>0.12767461047196829</v>
       </c>
       <c r="H13">
-        <v>66.28074145302934</v>
+        <v>66.280741453029336</v>
       </c>
       <c r="I13">
         <v>-0.1203269147936861</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -910,19 +960,19 @@
         <v>7604.62353515625</v>
       </c>
       <c r="F14">
-        <v>52.00767517089844</v>
+        <v>52.007675170898438</v>
       </c>
       <c r="G14">
-        <v>0.0771819213468931</v>
+        <v>7.7181921346893098E-2</v>
       </c>
       <c r="H14">
-        <v>84.06841930575796</v>
+        <v>84.068419305757956</v>
       </c>
       <c r="I14">
-        <v>0.6269927771960409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.62699277719604085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -942,7 +992,7 @@
         <v>1130.518920898438</v>
       </c>
       <c r="G15">
-        <v>0.7520821487924482</v>
+        <v>0.75208214879244817</v>
       </c>
       <c r="H15">
         <v>1148.816391531906</v>
@@ -951,7 +1001,7 @@
         <v>-31.79050461178268</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -974,13 +1024,13 @@
         <v>0.1962757534060397</v>
       </c>
       <c r="H16">
-        <v>585.4637357873215</v>
+        <v>585.46373578732153</v>
       </c>
       <c r="I16">
-        <v>-1.029100551453969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-1.0291005514539691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -997,19 +1047,19 @@
         <v>14096.291015625</v>
       </c>
       <c r="F17">
-        <v>98.38352966308594</v>
+        <v>98.383529663085938</v>
       </c>
       <c r="G17">
         <v>0.1564137445842706</v>
       </c>
       <c r="H17">
-        <v>118.6851172703796</v>
+        <v>118.68511727037961</v>
       </c>
       <c r="I17">
-        <v>-0.4939959337450565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>-0.49399593374505651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1088,7 @@
         <v>-0.1098361998560855</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1105,7 @@
         <v>12138.7509765625</v>
       </c>
       <c r="F19">
-        <v>69.44911956787109</v>
+        <v>69.449119567871094</v>
       </c>
       <c r="G19">
         <v>0.1011711576730682</v>
@@ -1064,10 +1114,10 @@
         <v>108.9401635321166</v>
       </c>
       <c r="I19">
-        <v>0.3795760801236656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.37957608012366562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1084,19 +1134,19 @@
         <v>363278.09375</v>
       </c>
       <c r="F20">
-        <v>568.8429565429688</v>
+        <v>568.84295654296875</v>
       </c>
       <c r="G20">
-        <v>0.369762800255231</v>
+        <v>0.36976280025523101</v>
       </c>
       <c r="H20">
-        <v>602.7154884768747</v>
+        <v>602.71548847687473</v>
       </c>
       <c r="I20">
-        <v>-8.023193334722055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-8.0231933347220554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1113,19 +1163,19 @@
         <v>181987.734375</v>
       </c>
       <c r="F21">
-        <v>334.7237854003906</v>
+        <v>334.72378540039063</v>
       </c>
       <c r="G21">
-        <v>0.1526499722246629</v>
+        <v>0.15264997222466289</v>
       </c>
       <c r="H21">
-        <v>426.567172325096</v>
+        <v>426.56717232509601</v>
       </c>
       <c r="I21">
-        <v>-0.0778776630690235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-7.7877663069023495E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1142,19 +1192,19 @@
         <v>13338.419921875</v>
       </c>
       <c r="F22">
-        <v>95.11325073242188</v>
+        <v>95.113250732421875</v>
       </c>
       <c r="G22">
-        <v>0.152073457645217</v>
+        <v>0.15207345764521699</v>
       </c>
       <c r="H22">
-        <v>115.4481256363376</v>
+        <v>115.44812563633759</v>
       </c>
       <c r="I22">
-        <v>-0.4137193409453149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.41371934094531487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1221,7 @@
         <v>3913.98388671875</v>
       </c>
       <c r="F23">
-        <v>47.86849594116211</v>
+        <v>47.868495941162109</v>
       </c>
       <c r="G23">
         <v>0.1177022273034302</v>
@@ -1180,10 +1230,10 @@
         <v>62.48978469147815</v>
       </c>
       <c r="I23">
-        <v>0.00596145636824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>5.9614563682399997E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1200,19 +1250,19 @@
         <v>7663.17626953125</v>
       </c>
       <c r="F24">
-        <v>53.40924835205078</v>
+        <v>53.409248352050781</v>
       </c>
       <c r="G24">
-        <v>0.08002024585309089</v>
+        <v>8.0020245853090893E-2</v>
       </c>
       <c r="H24">
-        <v>84.68373847812015</v>
+        <v>84.683738478120148</v>
       </c>
       <c r="I24">
-        <v>0.6225453997547994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.62254539975479939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1229,19 +1279,19 @@
         <v>557781.625</v>
       </c>
       <c r="F25">
-        <v>717.7891235351562</v>
+        <v>717.78912353515625</v>
       </c>
       <c r="G25">
         <v>0.4706221110323372</v>
       </c>
       <c r="H25">
-        <v>746.8025645073864</v>
+        <v>746.80256450738636</v>
       </c>
       <c r="I25">
         <v>-12.85691164997065</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1258,19 +1308,19 @@
         <v>113242.1328125</v>
       </c>
       <c r="F26">
-        <v>251.8615112304688</v>
+        <v>251.86151123046881</v>
       </c>
       <c r="G26">
         <v>0.1130701063720515</v>
       </c>
       <c r="H26">
-        <v>336.4343825792145</v>
+        <v>336.43438257921451</v>
       </c>
       <c r="I26">
-        <v>0.3289580126285047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.32895801262850471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1296,10 +1346,10 @@
         <v>119.6003024380985</v>
       </c>
       <c r="I27">
-        <v>-0.5174746780194265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>-0.51747467801942648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1316,19 +1366,19 @@
         <v>3283.640625</v>
       </c>
       <c r="F28">
-        <v>41.0859260559082</v>
+        <v>41.085926055908203</v>
       </c>
       <c r="G28">
         <v>0.1051244947921938</v>
       </c>
       <c r="H28">
-        <v>57.04832916888427</v>
+        <v>57.048329168884273</v>
       </c>
       <c r="I28">
-        <v>0.166373871279878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.16637387127987799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1345,19 +1395,19 @@
         <v>8073.67236328125</v>
       </c>
       <c r="F29">
-        <v>53.58689880371094</v>
+        <v>53.586898803710938</v>
       </c>
       <c r="G29">
-        <v>0.0794695947675586</v>
+        <v>7.9469594767558605E-2</v>
       </c>
       <c r="H29">
-        <v>87.21345388159627</v>
+        <v>87.213453881596266</v>
       </c>
       <c r="I29">
-        <v>0.600632216583795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.60063221658379495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1374,19 +1424,19 @@
         <v>647996.875</v>
       </c>
       <c r="F30">
-        <v>764.4179077148438</v>
+        <v>764.41790771484375</v>
       </c>
       <c r="G30">
-        <v>0.4987280001922194</v>
+        <v>0.49872800019221941</v>
       </c>
       <c r="H30">
-        <v>804.9607822278305</v>
+        <v>804.96078222783046</v>
       </c>
       <c r="I30">
-        <v>-15.09594221047156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-15.095942210471559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1403,19 +1453,19 @@
         <v>140549.203125</v>
       </c>
       <c r="F31">
-        <v>277.0344848632812</v>
+        <v>277.03448486328119</v>
       </c>
       <c r="G31">
-        <v>0.1236150024768324</v>
+        <v>0.12361500247683239</v>
       </c>
       <c r="H31">
-        <v>374.8686472448009</v>
+        <v>374.86864724480091</v>
       </c>
       <c r="I31">
-        <v>0.167555604245624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.16755560424562399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1482,7 @@
         <v>13921.9384765625</v>
       </c>
       <c r="F32">
-        <v>97.90781402587891</v>
+        <v>97.907814025878906</v>
       </c>
       <c r="G32">
         <v>0.1565833070905131</v>
@@ -1441,10 +1491,10 @@
         <v>117.9492032205888</v>
       </c>
       <c r="I32">
-        <v>-0.4755203505135288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.47552035051352881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1461,19 +1511,19 @@
         <v>3158.03662109375</v>
       </c>
       <c r="F33">
-        <v>41.56772232055664</v>
+        <v>41.567722320556641</v>
       </c>
       <c r="G33">
         <v>0.100714814218689</v>
       </c>
       <c r="H33">
-        <v>56.15236802668588</v>
+        <v>56.152368026685878</v>
       </c>
       <c r="I33">
-        <v>0.1979995198916207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.19799951989162071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1490,19 +1540,19 @@
         <v>8326.1201171875</v>
       </c>
       <c r="F34">
-        <v>54.26575088500977</v>
+        <v>54.265750885009773</v>
       </c>
       <c r="G34">
-        <v>0.08074372146164149</v>
+        <v>8.0743721461641493E-2</v>
       </c>
       <c r="H34">
-        <v>88.92261114684044</v>
+        <v>88.922611146840438</v>
       </c>
       <c r="I34">
-        <v>0.5857942044018239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.58579420440182395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1522,16 +1572,16 @@
         <v>1322.113159179688</v>
       </c>
       <c r="G35">
-        <v>0.8855750791368355</v>
+        <v>0.88557507913683553</v>
       </c>
       <c r="H35">
-        <v>1334.76926127029</v>
+        <v>1334.7692612702899</v>
       </c>
       <c r="I35">
-        <v>-43.25393512312898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-43.253935123128983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1548,19 +1598,19 @@
         <v>193420.53125</v>
       </c>
       <c r="F36">
-        <v>328.1384582519531</v>
+        <v>328.13845825195313</v>
       </c>
       <c r="G36">
-        <v>0.1462172897769694</v>
+        <v>0.14621728977696941</v>
       </c>
       <c r="H36">
-        <v>439.7529228020172</v>
+        <v>439.75292280201722</v>
       </c>
       <c r="I36">
         <v>-0.1456876407652867</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1577,19 +1627,19 @@
         <v>14372.703125</v>
       </c>
       <c r="F37">
-        <v>99.46248626708984</v>
+        <v>99.462486267089844</v>
       </c>
       <c r="G37">
-        <v>0.1579728859077971</v>
+        <v>0.15797288590779709</v>
       </c>
       <c r="H37">
         <v>119.8439337776254</v>
       </c>
       <c r="I37">
-        <v>-0.5232772797364001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>-0.52327727973640015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1606,19 +1656,19 @@
         <v>4228.27880859375</v>
       </c>
       <c r="F38">
-        <v>52.15508651733398</v>
+        <v>52.155086517333977</v>
       </c>
       <c r="G38">
-        <v>0.1221463699732979</v>
+        <v>0.12214636997329791</v>
       </c>
       <c r="H38">
-        <v>64.89845292253216</v>
+        <v>64.898452922532158</v>
       </c>
       <c r="I38">
-        <v>-0.0738389285018468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-7.3838928501846798E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1635,19 +1685,19 @@
         <v>8322.748046875</v>
       </c>
       <c r="F39">
-        <v>55.99771118164063</v>
+        <v>55.997711181640632</v>
       </c>
       <c r="G39">
-        <v>0.0832607929071099</v>
+        <v>8.3260792907109901E-2</v>
       </c>
       <c r="H39">
-        <v>88.76491266458119</v>
+        <v>88.764912664581189</v>
       </c>
       <c r="I39">
-        <v>0.5869556385115509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.58695563851155086</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1667,16 +1717,16 @@
         <v>641.7939453125</v>
       </c>
       <c r="G40">
-        <v>0.4184514754430934</v>
+        <v>0.41845147544309341</v>
       </c>
       <c r="H40">
-        <v>675.4557429368542</v>
+        <v>675.45574293685422</v>
       </c>
       <c r="I40">
-        <v>-10.33603826224016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-10.336038262240161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1693,19 +1743,19 @@
         <v>148556.921875</v>
       </c>
       <c r="F41">
-        <v>293.6627502441406</v>
+        <v>293.66275024414063</v>
       </c>
       <c r="G41">
-        <v>0.1323821131613767</v>
+        <v>0.13238211316137671</v>
       </c>
       <c r="H41">
         <v>385.3674210261463</v>
       </c>
       <c r="I41">
-        <v>0.1198628389743532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.11986283897435319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1722,19 +1772,19 @@
         <v>13067.947265625</v>
       </c>
       <c r="F42">
-        <v>93.85549926757812</v>
+        <v>93.855499267578125</v>
       </c>
       <c r="G42">
-        <v>0.1498519060319758</v>
+        <v>0.14985190603197579</v>
       </c>
       <c r="H42">
         <v>114.2692954571326</v>
       </c>
       <c r="I42">
-        <v>-0.3851249583831485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>-0.38512495838314847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1751,19 +1801,19 @@
         <v>4161.42138671875</v>
       </c>
       <c r="F43">
-        <v>49.46764373779297</v>
+        <v>49.467643737792969</v>
       </c>
       <c r="G43">
-        <v>0.1226278358646443</v>
+        <v>0.12262783586464431</v>
       </c>
       <c r="H43">
-        <v>64.3678959327144</v>
+        <v>64.367895932714404</v>
       </c>
       <c r="I43">
-        <v>-0.0568559593479033</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-5.6855959347903301E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1780,19 +1830,19 @@
         <v>7449.84423828125</v>
       </c>
       <c r="F44">
-        <v>53.01898574829102</v>
+        <v>53.018985748291023</v>
       </c>
       <c r="G44">
-        <v>0.07904648364344299</v>
+        <v>7.9046483643442994E-2</v>
       </c>
       <c r="H44">
         <v>83.26717118840719</v>
       </c>
       <c r="I44">
-        <v>0.6344351595937361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.63443515959373609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1809,19 +1859,19 @@
         <v>551039.625</v>
       </c>
       <c r="F45">
-        <v>707.1371459960938</v>
+        <v>707.13714599609375</v>
       </c>
       <c r="G45">
         <v>0.461698316959606</v>
       </c>
       <c r="H45">
-        <v>742.3036883584264</v>
+        <v>742.30368835842637</v>
       </c>
       <c r="I45">
-        <v>-12.68721273933748</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>-12.687212739337481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1841,16 +1891,16 @@
         <v>363.7479248046875</v>
       </c>
       <c r="G46">
-        <v>0.1633085569118534</v>
+        <v>0.16330855691185339</v>
       </c>
       <c r="H46">
-        <v>478.1957269704928</v>
+        <v>478.19572697049279</v>
       </c>
       <c r="I46">
-        <v>-0.355344187374139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.35534418737413898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1867,19 +1917,19 @@
         <v>87642.390625</v>
       </c>
       <c r="F47">
-        <v>279.2057189941406</v>
+        <v>279.20571899414063</v>
       </c>
       <c r="G47">
-        <v>0.4520996532358195</v>
+        <v>0.45209965323581952</v>
       </c>
       <c r="H47">
-        <v>295.6422642012566</v>
+        <v>295.64226420125658</v>
       </c>
       <c r="I47">
-        <v>-8.276797659385142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-8.2767976593851422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1896,19 +1946,19 @@
         <v>3190.403564453125</v>
       </c>
       <c r="F48">
-        <v>41.86094284057617</v>
+        <v>41.860942840576172</v>
       </c>
       <c r="G48">
-        <v>0.1057636836524072</v>
+        <v>0.10576368365240719</v>
       </c>
       <c r="H48">
-        <v>55.98874208712303</v>
+        <v>55.988742087123029</v>
       </c>
       <c r="I48">
-        <v>0.1901986832579093</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.19019868325790931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1925,19 +1975,19 @@
         <v>7909.53564453125</v>
       </c>
       <c r="F49">
-        <v>55.58462142944336</v>
+        <v>55.584621429443359</v>
       </c>
       <c r="G49">
-        <v>0.0832091798825164</v>
+        <v>8.3209179882516401E-2</v>
       </c>
       <c r="H49">
-        <v>86.05641363654024</v>
+        <v>86.056413636540242</v>
       </c>
       <c r="I49">
-        <v>0.6103692915508616</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.61036929155086161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1957,16 +2007,16 @@
         <v>648.6007080078125</v>
       </c>
       <c r="G50">
-        <v>0.423475591676007</v>
+        <v>0.42347559167600701</v>
       </c>
       <c r="H50">
-        <v>680.5190650731957</v>
+        <v>680.51906507319575</v>
       </c>
       <c r="I50">
         <v>-10.5040487462977</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1983,19 +2033,19 @@
         <v>147474.6875</v>
       </c>
       <c r="F51">
-        <v>282.2631530761719</v>
+        <v>282.26315307617188</v>
       </c>
       <c r="G51">
         <v>0.1254491875979864</v>
       </c>
       <c r="H51">
-        <v>383.9699888241099</v>
+        <v>383.96998882410992</v>
       </c>
       <c r="I51">
         <v>0.1263434671782537</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2015,16 +2065,16 @@
         <v>99.7637939453125</v>
       </c>
       <c r="G52">
-        <v>0.1579255363783982</v>
+        <v>0.15792553637839821</v>
       </c>
       <c r="H52">
-        <v>120.7656032801738</v>
+        <v>120.76560328017381</v>
       </c>
       <c r="I52">
-        <v>-0.5475647790140775</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.54756477901407752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2041,19 +2091,19 @@
         <v>4169.19287109375</v>
       </c>
       <c r="F53">
-        <v>51.07997512817383</v>
+        <v>51.079975128173828</v>
       </c>
       <c r="G53">
-        <v>0.1209478492751477</v>
+        <v>0.12094784927514771</v>
       </c>
       <c r="H53">
-        <v>64.40923694925824</v>
+        <v>64.409236949258243</v>
       </c>
       <c r="I53">
-        <v>-0.0587694094797776</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-5.8769409479777601E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2070,19 +2120,19 @@
         <v>8137.8388671875</v>
       </c>
       <c r="F54">
-        <v>53.50756454467773</v>
+        <v>53.507564544677727</v>
       </c>
       <c r="G54">
-        <v>0.07929956325144399</v>
+        <v>7.9299563251443994E-2</v>
       </c>
       <c r="H54">
-        <v>87.84922454853564</v>
+        <v>87.849224548535645</v>
       </c>
       <c r="I54">
         <v>0.595635146588116</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2099,19 +2149,19 @@
         <v>802242.0625</v>
       </c>
       <c r="F55">
-        <v>862.3854370117188</v>
+        <v>862.38543701171875</v>
       </c>
       <c r="G55">
-        <v>0.5665343050014368</v>
+        <v>0.56653430500143676</v>
       </c>
       <c r="H55">
-        <v>895.6567961738925</v>
+        <v>895.65679617389253</v>
       </c>
       <c r="I55">
-        <v>-18.92729668404941</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-18.927296684049409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2131,16 +2181,16 @@
         <v>309.184326171875</v>
       </c>
       <c r="G56">
-        <v>0.1379080523240037</v>
+        <v>0.13790805232400369</v>
       </c>
       <c r="H56">
-        <v>414.3209526977552</v>
+        <v>414.32095269775522</v>
       </c>
       <c r="I56">
-        <v>-0.0168721976730243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-1.6872197673024301E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2160,16 +2210,16 @@
         <v>106.5433654785156</v>
       </c>
       <c r="G57">
-        <v>0.1715806676922549</v>
+        <v>0.17158066769225491</v>
       </c>
       <c r="H57">
-        <v>125.64976662176</v>
+        <v>125.64976662175999</v>
       </c>
       <c r="I57">
-        <v>-0.6751788453575345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>-0.67517884535753447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2186,19 +2236,19 @@
         <v>4088.483154296875</v>
       </c>
       <c r="F58">
-        <v>49.86845779418945</v>
+        <v>49.868457794189453</v>
       </c>
       <c r="G58">
         <v>0.1213197654126059</v>
       </c>
       <c r="H58">
-        <v>63.8642293460212</v>
+        <v>63.864229346021197</v>
       </c>
       <c r="I58">
-        <v>-0.0385201113326965</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-3.8520111332696498E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2215,19 +2265,19 @@
         <v>7468.7568359375</v>
       </c>
       <c r="F59">
-        <v>51.65164184570312</v>
+        <v>51.651641845703118</v>
       </c>
       <c r="G59">
-        <v>0.0766053327268388</v>
+        <v>7.6605332726838796E-2</v>
       </c>
       <c r="H59">
-        <v>83.10896425015957</v>
+        <v>83.108964250159573</v>
       </c>
       <c r="I59">
-        <v>0.634671844091637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.63467184409163702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2247,16 +2297,16 @@
         <v>889.156494140625</v>
       </c>
       <c r="G60">
-        <v>0.5866870063152574</v>
+        <v>0.58668700631525739</v>
       </c>
       <c r="H60">
-        <v>914.7015615141941</v>
+        <v>914.70156151419405</v>
       </c>
       <c r="I60">
         <v>-19.78419847168578</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2273,19 +2323,19 @@
         <v>620380.5625</v>
       </c>
       <c r="F61">
-        <v>592.7683715820312</v>
+        <v>592.76837158203125</v>
       </c>
       <c r="G61">
         <v>0.2656412894218837</v>
       </c>
       <c r="H61">
-        <v>787.6295121069855</v>
+        <v>787.62951210698554</v>
       </c>
       <c r="I61">
-        <v>-2.672930141903109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-2.6729301419031088</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2302,10 +2352,10 @@
         <v>14223.2275390625</v>
       </c>
       <c r="F62">
-        <v>99.5657196044922</v>
+        <v>99.565719604492202</v>
       </c>
       <c r="G62">
-        <v>0.1596337343440865</v>
+        <v>0.15963373434408651</v>
       </c>
       <c r="H62">
         <v>119.2129513353778</v>
@@ -2314,7 +2364,7 @@
         <v>-0.5076024680308584</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2337,13 +2387,13 @@
         <v>0.1012479088715922</v>
       </c>
       <c r="H63">
-        <v>54.54106244434983</v>
+        <v>54.541062444349834</v>
       </c>
       <c r="I63">
         <v>0.232057308234768</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2360,19 +2410,19 @@
         <v>8170.16162109375</v>
       </c>
       <c r="F64">
-        <v>55.29310607910156</v>
+        <v>55.293106079101563</v>
       </c>
       <c r="G64">
-        <v>0.0825932212717566</v>
+        <v>8.2593221271756598E-2</v>
       </c>
       <c r="H64">
         <v>87.3429992587904</v>
       </c>
       <c r="I64">
-        <v>0.5981264719560472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.59812647195604718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2439,7 @@
         <v>554842.125</v>
       </c>
       <c r="F65">
-        <v>705.2232055664062</v>
+        <v>705.22320556640625</v>
       </c>
       <c r="G65">
         <v>0.459371952352428</v>
@@ -2398,10 +2448,10 @@
         <v>744.8499924243489</v>
       </c>
       <c r="I65">
-        <v>-12.78267029297892</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-12.782670292978921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2418,19 +2468,19 @@
         <v>182039.8125</v>
       </c>
       <c r="F66">
-        <v>316.7022399902344</v>
+        <v>316.70223999023438</v>
       </c>
       <c r="G66">
         <v>0.1409231644611193</v>
       </c>
       <c r="H66">
-        <v>426.6303153495277</v>
+        <v>426.63031534952768</v>
       </c>
       <c r="I66">
-        <v>-0.07814100559986439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-7.8141005599864394E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2450,16 +2500,16 @@
         <v>100.021354675293</v>
       </c>
       <c r="G67">
-        <v>0.1612535452676468</v>
+        <v>0.16125354526764679</v>
       </c>
       <c r="H67">
-        <v>119.1571774966148</v>
+        <v>119.15717749661481</v>
       </c>
       <c r="I67">
-        <v>-0.5052920530494852</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.50529205304948521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2476,19 +2526,19 @@
         <v>3121.62939453125</v>
       </c>
       <c r="F68">
-        <v>40.29271697998047</v>
+        <v>40.292716979980469</v>
       </c>
       <c r="G68">
-        <v>0.0987934942676542</v>
+        <v>9.87934942676542E-2</v>
       </c>
       <c r="H68">
-        <v>55.7850886802979</v>
+        <v>55.785088680297903</v>
       </c>
       <c r="I68">
         <v>0.207351575008937</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2505,19 +2555,19 @@
         <v>7953.29052734375</v>
       </c>
       <c r="F69">
-        <v>53.80508804321289</v>
+        <v>53.805088043212891</v>
       </c>
       <c r="G69">
-        <v>0.0794586251604576</v>
+        <v>7.9458625160457597E-2</v>
       </c>
       <c r="H69">
-        <v>86.69037035267405</v>
+        <v>86.690370352674051</v>
       </c>
       <c r="I69">
-        <v>0.6058028493724872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.60580284937248718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2537,16 +2587,16 @@
         <v>846.055908203125</v>
       </c>
       <c r="G70">
-        <v>0.5536860100954807</v>
+        <v>0.55368601009548069</v>
       </c>
       <c r="H70">
-        <v>886.7288449408858</v>
+        <v>886.72884494088578</v>
       </c>
       <c r="I70">
         <v>-18.53308436304911</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2563,19 +2613,19 @@
         <v>284038.28125</v>
       </c>
       <c r="F71">
-        <v>378.9862976074219</v>
+        <v>378.98629760742188</v>
       </c>
       <c r="G71">
         <v>0.1668282221139005</v>
       </c>
       <c r="H71">
-        <v>532.9132200822569</v>
+        <v>532.91322008225688</v>
       </c>
       <c r="I71">
-        <v>-0.6821534054864888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.68215340548648884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2595,16 +2645,16 @@
         <v>113.79248046875</v>
       </c>
       <c r="G72">
-        <v>0.1823136118338387</v>
+        <v>0.18231361183383871</v>
       </c>
       <c r="H72">
         <v>133.1917099819099</v>
       </c>
       <c r="I72">
-        <v>-0.8793954213056266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.87939542130562665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2621,19 +2671,19 @@
         <v>3354.867431640625</v>
       </c>
       <c r="F73">
-        <v>42.77275466918945</v>
+        <v>42.772754669189453</v>
       </c>
       <c r="G73">
         <v>0.10949275509713</v>
       </c>
       <c r="H73">
-        <v>57.60811417852695</v>
+        <v>57.608114178526947</v>
       </c>
       <c r="I73">
         <v>0.1483100894333676</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2650,19 +2700,19 @@
         <v>8145.6904296875</v>
       </c>
       <c r="F74">
-        <v>55.60565948486328</v>
+        <v>55.605659484863281</v>
       </c>
       <c r="G74">
-        <v>0.0845391704944698</v>
+        <v>8.4539170494469795E-2</v>
       </c>
       <c r="H74">
-        <v>87.220081521464</v>
+        <v>87.220081521463996</v>
       </c>
       <c r="I74">
-        <v>0.599362711726206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.59936271172620603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2679,19 +2729,19 @@
         <v>574382.625</v>
       </c>
       <c r="F75">
-        <v>719.1249389648438</v>
+        <v>719.12493896484375</v>
       </c>
       <c r="G75">
-        <v>0.4687912473198222</v>
+        <v>0.46879124731982219</v>
       </c>
       <c r="H75">
-        <v>757.8332355751467</v>
+        <v>757.83323557514666</v>
       </c>
       <c r="I75">
-        <v>-13.26939192131876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-13.269391921318761</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2708,19 +2758,19 @@
         <v>178594.890625</v>
       </c>
       <c r="F76">
-        <v>319.9248352050781</v>
+        <v>319.92483520507813</v>
       </c>
       <c r="G76">
         <v>0.1438926846247125</v>
       </c>
       <c r="H76">
-        <v>422.5795160732304</v>
+        <v>422.57951607323042</v>
       </c>
       <c r="I76">
-        <v>-0.0576781966474242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-5.7678196647424199E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +2787,7 @@
         <v>11443.232421875</v>
       </c>
       <c r="F77">
-        <v>86.62290954589844</v>
+        <v>86.622909545898438</v>
       </c>
       <c r="G77">
         <v>0.1380391921982527</v>
@@ -2749,7 +2799,7 @@
         <v>-0.2109733447297989</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2766,19 +2816,19 @@
         <v>2778.181884765625</v>
       </c>
       <c r="F78">
-        <v>38.24588012695312</v>
+        <v>38.245880126953118</v>
       </c>
       <c r="G78">
-        <v>0.09525039498261979</v>
+        <v>9.5250394982619793E-2</v>
       </c>
       <c r="H78">
-        <v>51.59447647330973</v>
+        <v>51.594476473309733</v>
       </c>
       <c r="I78">
         <v>0.2950730105474329</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2795,19 +2845,19 @@
         <v>6996.55615234375</v>
       </c>
       <c r="F79">
-        <v>51.91007614135742</v>
+        <v>51.910076141357422</v>
       </c>
       <c r="G79">
-        <v>0.0785915087795008</v>
+        <v>7.8591508779500802E-2</v>
       </c>
       <c r="H79">
         <v>80.08078297276289</v>
       </c>
       <c r="I79">
-        <v>0.6594132688283157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.65941326882831575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2824,19 +2874,19 @@
         <v>277236.75</v>
       </c>
       <c r="F80">
-        <v>485.6703491210938</v>
+        <v>485.67034912109381</v>
       </c>
       <c r="G80">
-        <v>0.3127143499623125</v>
+        <v>0.31271434996231251</v>
       </c>
       <c r="H80">
-        <v>526.528837705381</v>
+        <v>526.52883770538097</v>
       </c>
       <c r="I80">
-        <v>-5.884199534262055</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-5.8841995342620548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2853,19 +2903,19 @@
         <v>126982.3125</v>
       </c>
       <c r="F81">
-        <v>273.9138793945312</v>
+        <v>273.91387939453119</v>
       </c>
       <c r="G81">
         <v>0.123928399435992</v>
       </c>
       <c r="H81">
-        <v>356.0570122777822</v>
+        <v>356.05701227778218</v>
       </c>
       <c r="I81">
         <v>0.2468312355137296</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2885,16 +2935,16 @@
         <v>101.0649719238281</v>
       </c>
       <c r="G82">
-        <v>0.1635285635616933</v>
+        <v>0.16352856356169329</v>
       </c>
       <c r="H82">
         <v>119.8561360607447</v>
       </c>
       <c r="I82">
-        <v>-0.5236730164951214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.52367301649512144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2911,19 +2961,19 @@
         <v>3969.239501953125</v>
       </c>
       <c r="F83">
-        <v>50.90125274658203</v>
+        <v>50.901252746582031</v>
       </c>
       <c r="G83">
-        <v>0.1211916835124724</v>
+        <v>0.12119168351247241</v>
       </c>
       <c r="H83">
-        <v>62.88909346468613</v>
+        <v>62.889093464686127</v>
       </c>
       <c r="I83">
-        <v>-0.008150490410983299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-8.1504904109832993E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2940,19 +2990,19 @@
         <v>7317.53271484375</v>
       </c>
       <c r="F84">
-        <v>51.97793197631836</v>
+        <v>51.977931976318359</v>
       </c>
       <c r="G84">
-        <v>0.0781667595114596</v>
+        <v>7.8166759511459599E-2</v>
       </c>
       <c r="H84">
-        <v>82.19577989279111</v>
+        <v>82.195779892791109</v>
       </c>
       <c r="I84">
-        <v>0.6424283827502563</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.64242838275025627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2969,19 +3019,19 @@
         <v>1033766.625</v>
       </c>
       <c r="F85">
-        <v>996.1077270507812</v>
+        <v>996.10772705078125</v>
       </c>
       <c r="G85">
-        <v>0.660519263352327</v>
+        <v>0.66051926335232702</v>
       </c>
       <c r="H85">
         <v>1016.727941093299</v>
       </c>
       <c r="I85">
-        <v>-24.67622344652625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-24.676223446526251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2998,19 +3048,19 @@
         <v>149720.921875</v>
       </c>
       <c r="F86">
-        <v>285.7183227539062</v>
+        <v>285.71832275390619</v>
       </c>
       <c r="G86">
-        <v>0.1273403823956906</v>
+        <v>0.12734038239569059</v>
       </c>
       <c r="H86">
-        <v>386.4278180207803</v>
+        <v>386.42781802078031</v>
       </c>
       <c r="I86">
         <v>0.1114289576638776</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3027,19 +3077,19 @@
         <v>12540.271484375</v>
       </c>
       <c r="F87">
-        <v>93.27218627929688</v>
+        <v>93.272186279296875</v>
       </c>
       <c r="G87">
-        <v>0.1519414655324013</v>
+        <v>0.15194146553240129</v>
       </c>
       <c r="H87">
-        <v>111.953621815759</v>
+        <v>111.95362181575901</v>
       </c>
       <c r="I87">
         <v>-0.32864301323667</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3056,19 +3106,19 @@
         <v>3963.161376953125</v>
       </c>
       <c r="F88">
-        <v>48.36641311645508</v>
+        <v>48.366413116455078</v>
       </c>
       <c r="G88">
         <v>0.1186503642247477</v>
       </c>
       <c r="H88">
-        <v>62.94276225651642</v>
+        <v>62.942762256516417</v>
       </c>
       <c r="I88">
-        <v>-0.0065796080152116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-6.5796080152116E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3085,19 +3135,19 @@
         <v>6919.291015625</v>
       </c>
       <c r="F89">
-        <v>51.21274948120117</v>
+        <v>51.212749481201172</v>
       </c>
       <c r="G89">
-        <v>0.07726589903321709</v>
+        <v>7.7265899033217095E-2</v>
       </c>
       <c r="H89">
-        <v>79.99852164912426</v>
+        <v>79.998521649124257</v>
       </c>
       <c r="I89">
-        <v>0.6615143401069378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.66151434010693777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3117,16 +3167,16 @@
         <v>656.30078125</v>
       </c>
       <c r="G90">
-        <v>0.4281496813623322</v>
+        <v>0.42814968136233222</v>
       </c>
       <c r="H90">
-        <v>690.1287930984641</v>
+        <v>690.12879309846414</v>
       </c>
       <c r="I90">
         <v>-10.83540375034112</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3146,16 +3196,16 @@
         <v>282.75244140625</v>
       </c>
       <c r="G91">
-        <v>0.1256631769071694</v>
+        <v>0.12566317690716941</v>
       </c>
       <c r="H91">
-        <v>385.8867140194134</v>
+        <v>385.88671401941338</v>
       </c>
       <c r="I91">
-        <v>0.1177046288513982</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.11770462885139819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3222,7 @@
         <v>11473.5625</v>
       </c>
       <c r="F92">
-        <v>86.22301483154297</v>
+        <v>86.223014831542969</v>
       </c>
       <c r="G92">
         <v>0.1375413473052064</v>
@@ -3181,10 +3231,10 @@
         <v>107.0888897298501</v>
       </c>
       <c r="I92">
-        <v>-0.2156604486102711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.21566044861027109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3201,19 +3251,19 @@
         <v>4019.853759765625</v>
       </c>
       <c r="F93">
-        <v>50.23584747314453</v>
+        <v>50.235847473144531</v>
       </c>
       <c r="G93">
-        <v>0.1206886686162156</v>
+        <v>0.12068866861621561</v>
       </c>
       <c r="H93">
-        <v>63.38103433878933</v>
+        <v>63.381034338789327</v>
       </c>
       <c r="I93">
-        <v>-0.021113256472813</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-2.1113256472813001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3230,19 +3280,19 @@
         <v>6786.02685546875</v>
       </c>
       <c r="F94">
-        <v>51.52444458007812</v>
+        <v>51.524444580078118</v>
       </c>
       <c r="G94">
-        <v>0.0786975367585217</v>
+        <v>7.8697536758521702E-2</v>
       </c>
       <c r="H94">
-        <v>78.62721829095197</v>
+        <v>78.627218290951973</v>
       </c>
       <c r="I94">
-        <v>0.6707580118070794</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.67075801180707939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3259,19 +3309,19 @@
         <v>472416.5625</v>
       </c>
       <c r="F95">
-        <v>651.6963500976562</v>
+        <v>651.69635009765625</v>
       </c>
       <c r="G95">
         <v>0.4245508971890779</v>
       </c>
       <c r="H95">
-        <v>687.3114717125719</v>
+        <v>687.31147171257192</v>
       </c>
       <c r="I95">
         <v>-10.73391182096198</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3288,19 +3338,19 @@
         <v>152467.421875</v>
       </c>
       <c r="F96">
-        <v>289.8931579589844</v>
+        <v>289.89315795898438</v>
       </c>
       <c r="G96">
         <v>0.1291192885857905</v>
       </c>
       <c r="H96">
-        <v>390.4349861446526</v>
+        <v>390.43498614465261</v>
       </c>
       <c r="I96">
-        <v>0.0969187525270423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>9.6918752527042296E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3317,7 +3367,7 @@
         <v>13524.634765625</v>
       </c>
       <c r="F97">
-        <v>96.23985290527344</v>
+        <v>96.239852905273438</v>
       </c>
       <c r="G97">
         <v>0.1539032436434194</v>
@@ -3326,10 +3376,10 @@
         <v>116.25514585425</v>
       </c>
       <c r="I97">
-        <v>-0.4333588699382893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.43335886993828932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3346,19 +3396,19 @@
         <v>2881.595703125</v>
       </c>
       <c r="F98">
-        <v>38.99174880981445</v>
+        <v>38.991748809814453</v>
       </c>
       <c r="G98">
-        <v>0.09786497909191789</v>
+        <v>9.7864979091917895E-2</v>
       </c>
       <c r="H98">
-        <v>52.62039829337903</v>
+        <v>52.620398293379033</v>
       </c>
       <c r="I98">
-        <v>0.2688128733501522</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.26881287335015219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3378,16 +3428,16 @@
         <v>52.87139892578125</v>
       </c>
       <c r="G99">
-        <v>0.0806801432181211</v>
+        <v>8.06801432181211E-2</v>
       </c>
       <c r="H99">
         <v>80.60869370422644</v>
       </c>
       <c r="I99">
-        <v>0.6549228081306067</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.65492280813060666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3407,16 +3457,16 @@
         <v>675.2244873046875</v>
       </c>
       <c r="G100">
-        <v>0.4420682400785941</v>
+        <v>0.44206824007859408</v>
       </c>
       <c r="H100">
-        <v>704.5876894654695</v>
+        <v>704.58768946546945</v>
       </c>
       <c r="I100">
-        <v>-11.3306761451717</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>-11.330676145171701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3439,13 +3489,13 @@
         <v>0.1211069141871345</v>
       </c>
       <c r="H101">
-        <v>366.0696796732018</v>
+        <v>366.06967967320179</v>
       </c>
       <c r="I101">
         <v>0.2061638680570585</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3462,10 +3512,10 @@
         <v>11449.0830078125</v>
       </c>
       <c r="F102">
-        <v>86.63817596435547</v>
+        <v>86.638175964355469</v>
       </c>
       <c r="G102">
-        <v>0.1379228513342267</v>
+        <v>0.13792285133422669</v>
       </c>
       <c r="H102">
         <v>106.98926536725</v>
@@ -3474,7 +3524,7 @@
         <v>-0.2124840911185148</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3491,19 +3541,19 @@
         <v>2989.56396484375</v>
       </c>
       <c r="F103">
-        <v>40.20781707763672</v>
+        <v>40.207817077636719</v>
       </c>
       <c r="G103">
-        <v>0.0997574562315878</v>
+        <v>9.9757456231587799E-2</v>
       </c>
       <c r="H103">
-        <v>52.89134343675357</v>
+        <v>52.891343436753573</v>
       </c>
       <c r="I103">
-        <v>0.241592652859792</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.24159265285979201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3520,19 +3570,19 @@
         <v>7252.58984375</v>
       </c>
       <c r="F104">
-        <v>53.97492599487305</v>
+        <v>53.974925994873047</v>
       </c>
       <c r="G104">
-        <v>0.08318599841951831</v>
+        <v>8.3185998419518306E-2</v>
       </c>
       <c r="H104">
         <v>81.49098024492838</v>
       </c>
       <c r="I104">
-        <v>0.6471700365938777</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.64717003659387773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3552,16 +3602,16 @@
         <v>845.475830078125</v>
       </c>
       <c r="G105">
-        <v>0.5580066085012746</v>
+        <v>0.55800660850127459</v>
       </c>
       <c r="H105">
         <v>869.2794136053476</v>
       </c>
       <c r="I105">
-        <v>-17.77091193890326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>-17.770911938903261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3631,7 @@
         <v>276.665283203125</v>
       </c>
       <c r="G106">
-        <v>0.1234444585526697</v>
+        <v>0.12344445855266969</v>
       </c>
       <c r="H106">
         <v>373.0478106848949</v>
@@ -3590,7 +3640,7 @@
         <v>0.1729862716289059</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3607,19 +3657,19 @@
         <v>10598.326171875</v>
       </c>
       <c r="F107">
-        <v>81.45613861083984</v>
+        <v>81.456138610839844</v>
       </c>
       <c r="G107">
-        <v>0.1300085400765144</v>
+        <v>0.13000854007651441</v>
       </c>
       <c r="H107">
-        <v>102.9350980757961</v>
+        <v>102.93509807579611</v>
       </c>
       <c r="I107">
-        <v>-0.1225134709409778</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>-0.12251347094097779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3636,19 +3686,19 @@
         <v>2817.332275390625</v>
       </c>
       <c r="F108">
-        <v>38.5756721496582</v>
+        <v>38.575672149658203</v>
       </c>
       <c r="G108">
-        <v>0.096675124821585</v>
+        <v>9.6675124821584996E-2</v>
       </c>
       <c r="H108">
-        <v>52.0267928671666</v>
+        <v>52.026792867166598</v>
       </c>
       <c r="I108">
-        <v>0.2851205863915718</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.28512058639157178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3665,19 +3715,19 @@
         <v>7260.11767578125</v>
       </c>
       <c r="F109">
-        <v>52.41477966308594</v>
+        <v>52.414779663085938</v>
       </c>
       <c r="G109">
-        <v>0.07903168730637369</v>
+        <v>7.9031687306373694E-2</v>
       </c>
       <c r="H109">
-        <v>82.18908180597924</v>
+        <v>82.189081805979242</v>
       </c>
       <c r="I109">
-        <v>0.6437040058217389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.64370400582173892</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3694,19 +3744,19 @@
         <v>397259.15625</v>
       </c>
       <c r="F110">
-        <v>596.4088745117188</v>
+        <v>596.40887451171875</v>
       </c>
       <c r="G110">
-        <v>0.3881005023856429</v>
+        <v>0.38810050238564292</v>
       </c>
       <c r="H110">
-        <v>630.2828780982584</v>
+        <v>630.28287809825838</v>
       </c>
       <c r="I110">
-        <v>-8.865798529701008</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>-8.8657985297010082</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3723,19 +3773,19 @@
         <v>139274.765625</v>
       </c>
       <c r="F111">
-        <v>280.1679382324219</v>
+        <v>280.16793823242188</v>
       </c>
       <c r="G111">
         <v>0.1254678050692288</v>
       </c>
       <c r="H111">
-        <v>373.0737776099222</v>
+        <v>373.07377760992222</v>
       </c>
       <c r="I111">
-        <v>0.1745711808066409</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.17457118080664091</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3752,19 +3802,19 @@
         <v>12361.4736328125</v>
       </c>
       <c r="F112">
-        <v>91.22210693359376</v>
+        <v>91.222106933593764</v>
       </c>
       <c r="G112">
-        <v>0.145680289350833</v>
+        <v>0.14568028935083299</v>
       </c>
       <c r="H112">
         <v>111.1470394850008</v>
       </c>
       <c r="I112">
-        <v>-0.3100005816385302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>-0.31000058163853023</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3781,19 +3831,19 @@
         <v>3551.248046875</v>
       </c>
       <c r="F113">
-        <v>45.21559524536133</v>
+        <v>45.215595245361328</v>
       </c>
       <c r="G113">
         <v>0.1104481495036011</v>
       </c>
       <c r="H113">
-        <v>59.55779501925625</v>
+        <v>59.557795019256247</v>
       </c>
       <c r="I113">
-        <v>0.0980970198760784</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>9.8097019876078398E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3810,19 +3860,19 @@
         <v>8139.17724609375</v>
       </c>
       <c r="F114">
-        <v>57.16025161743164</v>
+        <v>57.160251617431641</v>
       </c>
       <c r="G114">
-        <v>0.0873192803063365</v>
+        <v>8.7319280306336497E-2</v>
       </c>
       <c r="H114">
         <v>87.35776419786238</v>
       </c>
       <c r="I114">
-        <v>0.5986982872868706</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.59869828728687058</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3839,19 +3889,19 @@
         <v>460504.75</v>
       </c>
       <c r="F115">
-        <v>648.0381469726562</v>
+        <v>648.03814697265625</v>
       </c>
       <c r="G115">
-        <v>0.423516375503</v>
+        <v>0.42351637550299998</v>
       </c>
       <c r="H115">
-        <v>678.5614620763768</v>
+        <v>678.56146207637676</v>
       </c>
       <c r="I115">
-        <v>-10.44043442416221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>-10.440434424162209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3868,19 +3918,19 @@
         <v>146968.03125</v>
       </c>
       <c r="F116">
-        <v>284.7383728027344</v>
+        <v>284.73837280273438</v>
       </c>
       <c r="G116">
         <v>0.1270179735687175</v>
       </c>
       <c r="H116">
-        <v>383.2146405806772</v>
+        <v>383.21464058067721</v>
       </c>
       <c r="I116">
-        <v>0.1288363793855773</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.12883637938557729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3897,10 +3947,10 @@
         <v>12849.53125</v>
       </c>
       <c r="F117">
-        <v>92.85163879394533</v>
+        <v>92.851638793945327</v>
       </c>
       <c r="G117">
-        <v>0.1476774943659171</v>
+        <v>0.14767749436591709</v>
       </c>
       <c r="H117">
         <v>113.321555798505</v>
@@ -3909,7 +3959,7 @@
         <v>-0.3616787811238209</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3926,48 +3976,48 @@
         <v>2927.558837890625</v>
       </c>
       <c r="F118">
-        <v>39.46227645874024</v>
+        <v>39.462276458740241</v>
       </c>
       <c r="G118">
-        <v>0.0997090608244644</v>
+        <v>9.9709060824464402E-2</v>
       </c>
       <c r="H118">
-        <v>53.25861218130069</v>
+        <v>53.258612181300691</v>
       </c>
       <c r="I118">
-        <v>0.2570756047253167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
+        <v>0.25707560472531671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>3</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>68</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>6550.39111328125</v>
       </c>
-      <c r="F119">
-        <v>50.71213531494141</v>
-      </c>
-      <c r="G119">
-        <v>0.07736339955902979</v>
-      </c>
-      <c r="H119">
-        <v>77.15957243728973</v>
-      </c>
-      <c r="I119">
+      <c r="F119" s="2">
+        <v>50.712135314941413</v>
+      </c>
+      <c r="G119" s="2">
+        <v>7.7363399559029794E-2</v>
+      </c>
+      <c r="H119" s="2">
+        <v>77.159572437289725</v>
+      </c>
+      <c r="I119" s="2">
         <v>0.6824904903582093</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3984,19 +4034,19 @@
         <v>565731.6875</v>
       </c>
       <c r="F120">
-        <v>723.9963989257812</v>
+        <v>723.99639892578125</v>
       </c>
       <c r="G120">
-        <v>0.475051156747816</v>
+        <v>0.47505115674781601</v>
       </c>
       <c r="H120">
-        <v>752.1184554095918</v>
+        <v>752.11845540959177</v>
       </c>
       <c r="I120">
-        <v>-13.05363036405999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>-13.053630364059989</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4013,19 +4063,19 @@
         <v>122625.3828125</v>
       </c>
       <c r="F121">
-        <v>259.5602722167969</v>
+        <v>259.56027221679688</v>
       </c>
       <c r="G121">
         <v>0.115907626112847</v>
       </c>
       <c r="H121">
-        <v>349.8753966605952</v>
+        <v>349.87539666059519</v>
       </c>
       <c r="I121">
-        <v>0.2726419231319241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.27264192313192409</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4042,19 +4092,19 @@
         <v>13789.986328125</v>
       </c>
       <c r="F122">
-        <v>97.8691864013672</v>
+        <v>97.869186401367202</v>
       </c>
       <c r="G122">
-        <v>0.157409651901659</v>
+        <v>0.15740965190165901</v>
       </c>
       <c r="H122">
         <v>117.3872942891018</v>
       </c>
       <c r="I122">
-        <v>-0.4615735398819527</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>-0.46157353988195271</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4071,10 +4121,10 @@
         <v>3144.64453125</v>
       </c>
       <c r="F123">
-        <v>41.15015029907227</v>
+        <v>41.150150299072273</v>
       </c>
       <c r="G123">
-        <v>0.1025932505805384</v>
+        <v>0.10259325058053841</v>
       </c>
       <c r="H123">
         <v>55.84318333971305</v>
@@ -4083,7 +4133,7 @@
         <v>0.201685207994591</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4100,19 +4150,19 @@
         <v>6744.384765625</v>
       </c>
       <c r="F124">
-        <v>49.92962265014648</v>
+        <v>49.929622650146477</v>
       </c>
       <c r="G124">
-        <v>0.074607646896944</v>
+        <v>7.4607646896944005E-2</v>
       </c>
       <c r="H124">
-        <v>78.26887744091022</v>
+        <v>78.268877440910217</v>
       </c>
       <c r="I124">
-        <v>0.6733119160446637</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.67331191604466367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4129,19 +4179,19 @@
         <v>355675.25</v>
       </c>
       <c r="F125">
-        <v>549.7274780273438</v>
+        <v>549.72747802734375</v>
       </c>
       <c r="G125">
-        <v>0.354310315046471</v>
+        <v>0.35431031504647098</v>
       </c>
       <c r="H125">
-        <v>596.3690993275926</v>
+        <v>596.36909932759261</v>
       </c>
       <c r="I125">
-        <v>-7.834343707526719</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>-7.8343437075267186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4158,19 +4208,19 @@
         <v>130194.78125</v>
       </c>
       <c r="F126">
-        <v>264.5292053222656</v>
+        <v>264.52920532226563</v>
       </c>
       <c r="G126">
         <v>0.1178961969801666</v>
       </c>
       <c r="H126">
-        <v>360.7371869917972</v>
+        <v>360.73718699179722</v>
       </c>
       <c r="I126">
-        <v>0.2285128921761161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.22851289217611609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4187,19 +4237,19 @@
         <v>11023.7919921875</v>
       </c>
       <c r="F127">
-        <v>84.06378936767578</v>
+        <v>84.063789367675781</v>
       </c>
       <c r="G127">
-        <v>0.1325886304316622</v>
+        <v>0.13258863043166219</v>
       </c>
       <c r="H127">
-        <v>104.9829692602191</v>
+        <v>104.98296926021909</v>
       </c>
       <c r="I127">
-        <v>-0.1674583463548368</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>-0.16745834635483681</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4216,19 +4266,19 @@
         <v>2692.53125</v>
       </c>
       <c r="F128">
-        <v>37.82160186767578</v>
+        <v>37.821601867675781</v>
       </c>
       <c r="G128">
-        <v>0.0938675218052305</v>
+        <v>9.3867521805230503E-2</v>
       </c>
       <c r="H128">
         <v>50.46521900300759</v>
       </c>
       <c r="I128">
-        <v>0.3168888464203556</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.31688884642035559</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4245,19 +4295,19 @@
         <v>7064.62548828125</v>
       </c>
       <c r="F129">
-        <v>50.79271697998047</v>
+        <v>50.792716979980469</v>
       </c>
       <c r="G129">
-        <v>0.0764265366290043</v>
+        <v>7.6426536629004296E-2</v>
       </c>
       <c r="H129">
-        <v>80.77755751692486</v>
+        <v>80.777557516924858</v>
       </c>
       <c r="I129">
-        <v>0.6547389576729709</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.65473895767297086</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4274,19 +4324,19 @@
         <v>477044.5</v>
       </c>
       <c r="F130">
-        <v>653.4506225585938</v>
+        <v>653.45062255859375</v>
       </c>
       <c r="G130">
         <v>0.4253157973886984</v>
       </c>
       <c r="H130">
-        <v>690.6778866753239</v>
+        <v>690.67788667532386</v>
       </c>
       <c r="I130">
-        <v>-10.84821426903619</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>-10.848214269036189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4309,13 +4359,13 @@
         <v>0.1139179648872789</v>
       </c>
       <c r="H131">
-        <v>342.3636567815262</v>
+        <v>342.36365678152617</v>
       </c>
       <c r="I131">
-        <v>0.305486360694957</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.30548636069495699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4382,7 @@
         <v>11040.7421875</v>
       </c>
       <c r="F132">
-        <v>84.22175598144531</v>
+        <v>84.221755981445313</v>
       </c>
       <c r="G132">
         <v>0.1332207316580758</v>
@@ -4341,10 +4391,10 @@
         <v>105.066273817582</v>
       </c>
       <c r="I132">
-        <v>-0.1691195783642594</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>-0.16911957836425939</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4361,19 +4411,19 @@
         <v>2826.549560546875</v>
       </c>
       <c r="F133">
-        <v>39.00207138061523</v>
+        <v>39.002071380615227</v>
       </c>
       <c r="G133">
-        <v>0.0969845177832602</v>
+        <v>9.6984517783260199E-2</v>
       </c>
       <c r="H133">
-        <v>51.75919609305772</v>
+        <v>51.759196093057717</v>
       </c>
       <c r="I133">
-        <v>0.2828754567271687</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.28287545672716868</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4390,19 +4440,19 @@
         <v>7103.66455078125</v>
       </c>
       <c r="F134">
-        <v>51.41776657104492</v>
+        <v>51.417766571044922</v>
       </c>
       <c r="G134">
-        <v>0.0775109284521884</v>
+        <v>7.7510928452188405E-2</v>
       </c>
       <c r="H134">
         <v>80.42060042535644</v>
       </c>
       <c r="I134">
-        <v>0.6554125765630651</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.65541257656306506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4419,19 +4469,19 @@
         <v>429399.9375</v>
       </c>
       <c r="F135">
-        <v>622.3036499023438</v>
+        <v>622.30364990234375</v>
       </c>
       <c r="G135">
         <v>0.4056338719389565</v>
       </c>
       <c r="H135">
-        <v>655.2802472533649</v>
+        <v>655.28024725336491</v>
       </c>
       <c r="I135">
-        <v>-9.664808876783637</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>-9.6648088767836366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4448,19 +4498,19 @@
         <v>129226.078125</v>
       </c>
       <c r="F136">
-        <v>277.5005187988281</v>
+        <v>277.50051879882813</v>
       </c>
       <c r="G136">
         <v>0.1263293974383774</v>
       </c>
       <c r="H136">
-        <v>359.1857998888491</v>
+        <v>359.18579988884909</v>
       </c>
       <c r="I136">
         <v>0.2335289589937829</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4527,7 @@
         <v>11486.625</v>
       </c>
       <c r="F137">
-        <v>86.50559234619141</v>
+        <v>86.505592346191406</v>
       </c>
       <c r="G137">
         <v>0.1371174039903586</v>
@@ -4489,7 +4539,7 @@
         <v>-0.2169990075082332</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -4506,19 +4556,19 @@
         <v>3260.22412109375</v>
       </c>
       <c r="F138">
-        <v>42.76593399047852</v>
+        <v>42.765933990478523</v>
       </c>
       <c r="G138">
         <v>0.1047803914368084</v>
       </c>
       <c r="H138">
-        <v>57.02996931292577</v>
+        <v>57.029969312925772</v>
       </c>
       <c r="I138">
-        <v>0.1721114581236068</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.17211145812360679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4535,19 +4585,19 @@
         <v>7471.39599609375</v>
       </c>
       <c r="F139">
-        <v>53.89161682128906</v>
+        <v>53.891616821289063</v>
       </c>
       <c r="G139">
-        <v>0.08245036026335791</v>
+        <v>8.2450360263357905E-2</v>
       </c>
       <c r="H139">
-        <v>83.14845067376822</v>
+        <v>83.148450673768224</v>
       </c>
       <c r="I139">
-        <v>0.6344725711594358</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.63447257115943578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4567,16 +4617,16 @@
         <v>1046.300659179688</v>
       </c>
       <c r="G140">
-        <v>0.6947854091932062</v>
+        <v>0.69478540919320619</v>
       </c>
       <c r="H140">
-        <v>1065.812480029373</v>
+        <v>1065.8124800293731</v>
       </c>
       <c r="I140">
         <v>-27.2211009339137</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4593,7 +4643,7 @@
         <v>145106.15625</v>
       </c>
       <c r="F141">
-        <v>282.6969604492188</v>
+        <v>282.69696044921881</v>
       </c>
       <c r="G141">
         <v>0.1267373509662231</v>
@@ -4605,7 +4655,7 @@
         <v>0.1406170142783503</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -4622,19 +4672,19 @@
         <v>12102.2109375</v>
       </c>
       <c r="F142">
-        <v>89.35620880126953</v>
+        <v>89.356208801269531</v>
       </c>
       <c r="G142">
-        <v>0.1411459028656941</v>
+        <v>0.14114590286569409</v>
       </c>
       <c r="H142">
-        <v>109.9829298329713</v>
+        <v>109.98292983297129</v>
       </c>
       <c r="I142">
-        <v>-0.2822716827543206</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>-0.28227168275432057</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4651,19 +4701,19 @@
         <v>2857.15869140625</v>
       </c>
       <c r="F143">
-        <v>38.91653442382812</v>
+        <v>38.916534423828118</v>
       </c>
       <c r="G143">
-        <v>0.0973347538986503</v>
+        <v>9.7334753898650303E-2</v>
       </c>
       <c r="H143">
         <v>52.09400575009672</v>
       </c>
       <c r="I143">
-        <v>0.2750869199056253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.27508691990562528</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4680,19 +4730,19 @@
         <v>6920.34912109375</v>
       </c>
       <c r="F144">
-        <v>51.04093933105469</v>
+        <v>51.040939331054688</v>
       </c>
       <c r="G144">
-        <v>0.0769209465080954</v>
+        <v>7.6920946508095403E-2</v>
       </c>
       <c r="H144">
-        <v>79.59606365290601</v>
+        <v>79.596063652906011</v>
       </c>
       <c r="I144">
-        <v>0.6633129111338452</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.66331291113384516</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4709,19 +4759,19 @@
         <v>420658.40625</v>
       </c>
       <c r="F145">
-        <v>616.0314331054688</v>
+        <v>616.03143310546875</v>
       </c>
       <c r="G145">
-        <v>0.4015623169752693</v>
+        <v>0.40156231697526928</v>
       </c>
       <c r="H145">
-        <v>648.5582960861522</v>
+        <v>648.55829608615215</v>
       </c>
       <c r="I145">
         <v>-9.449452621083374</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4741,13 +4791,13 @@
         <v>306.791748046875</v>
       </c>
       <c r="G146">
-        <v>0.1373641200836384</v>
+        <v>0.13736412008363841</v>
       </c>
       <c r="H146">
-        <v>407.146707959932</v>
+        <v>407.14670795993197</v>
       </c>
       <c r="I146">
-        <v>0.0179239398929017</v>
+        <v>1.79239398929017E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4756,14 +4806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4815,28 +4865,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>139187.867578125</v>
+        <v>139187.86757812501</v>
       </c>
       <c r="D2">
-        <v>233.2083259582519</v>
+        <v>233.20832595825189</v>
       </c>
       <c r="E2">
-        <v>0.1866976296412254</v>
+        <v>0.18669762964122541</v>
       </c>
       <c r="F2">
-        <v>269.1717191785073</v>
+        <v>269.17171917850732</v>
       </c>
       <c r="G2">
-        <v>-2.462633224432884</v>
+        <v>-2.4626332244328841</v>
       </c>
       <c r="H2">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I2">
         <v>238395.5570125269</v>
       </c>
       <c r="J2">
-        <v>283.2469335233396</v>
+        <v>283.24693352333958</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4848,10 +4898,10 @@
         <v>3913.98388671875</v>
       </c>
       <c r="N2">
-        <v>47.86849594116211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>47.868495941162109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4859,28 +4909,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>158938.8000976563</v>
+        <v>158938.80009765629</v>
       </c>
       <c r="D3">
-        <v>246.8836647033691</v>
+        <v>246.88366470336911</v>
       </c>
       <c r="E3">
         <v>0.1939729218075528</v>
       </c>
       <c r="F3">
-        <v>282.0983814738233</v>
+        <v>282.09838147382328</v>
       </c>
       <c r="G3">
-        <v>-2.890168850842406</v>
+        <v>-2.8901688508424059</v>
       </c>
       <c r="H3">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I3">
-        <v>277903.9840965926</v>
+        <v>277903.98409659258</v>
       </c>
       <c r="J3">
-        <v>310.4086889982332</v>
+        <v>310.40868899823317</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4892,10 +4942,10 @@
         <v>3120.37060546875</v>
       </c>
       <c r="N3">
-        <v>41.18591690063477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>41.185916900634773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4903,28 +4953,28 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>160894.489453125</v>
+        <v>160894.48945312499</v>
       </c>
       <c r="D4">
-        <v>253.4454399108887</v>
+        <v>253.44543991088869</v>
       </c>
       <c r="E4">
-        <v>0.1953066198823045</v>
+        <v>0.19530661988230449</v>
       </c>
       <c r="F4">
-        <v>296.4807555814347</v>
+        <v>296.48075558143472</v>
       </c>
       <c r="G4">
-        <v>-2.570020536969787</v>
+        <v>-2.5700205369697868</v>
       </c>
       <c r="H4">
         <v>62.8</v>
       </c>
       <c r="I4">
-        <v>238107.7945454493</v>
+        <v>238107.79454544929</v>
       </c>
       <c r="J4">
-        <v>285.1532291411983</v>
+        <v>285.15322914119832</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4936,10 +4986,10 @@
         <v>4161.42138671875</v>
       </c>
       <c r="N4">
-        <v>49.46764373779297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>49.467643737792969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4950,22 +5000,22 @@
         <v>219132.2216796875</v>
       </c>
       <c r="D5">
-        <v>283.8322731018067</v>
+        <v>283.83227310180672</v>
       </c>
       <c r="E5">
-        <v>0.2120039793810279</v>
+        <v>0.21200397938102791</v>
       </c>
       <c r="F5">
-        <v>336.2549403105459</v>
+        <v>336.25494031054592</v>
       </c>
       <c r="G5">
-        <v>-3.781475079440732</v>
+        <v>-3.7814750794407321</v>
       </c>
       <c r="H5">
         <v>47.2</v>
       </c>
       <c r="I5">
-        <v>338818.1892205265</v>
+        <v>338818.18922052649</v>
       </c>
       <c r="J5">
         <v>343.2055430936943</v>
@@ -4980,10 +5030,10 @@
         <v>3121.62939453125</v>
       </c>
       <c r="N5">
-        <v>40.29271697998047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>40.292716979980469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4994,25 +5044,25 @@
         <v>141870.1409667969</v>
       </c>
       <c r="D6">
-        <v>261.5030288696289</v>
+        <v>261.50302886962891</v>
       </c>
       <c r="E6">
         <v>0.2379994592089473</v>
       </c>
       <c r="F6">
-        <v>300.4352947644451</v>
+        <v>300.43529476444508</v>
       </c>
       <c r="G6">
-        <v>-3.570786992739164</v>
+        <v>-3.5707869927391638</v>
       </c>
       <c r="H6">
         <v>58.6</v>
       </c>
       <c r="I6">
-        <v>189314.4471008205</v>
+        <v>189314.44710082049</v>
       </c>
       <c r="J6">
-        <v>245.5778988767005</v>
+        <v>245.57789887670049</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5024,10 +5074,10 @@
         <v>3190.403564453125</v>
       </c>
       <c r="N6">
-        <v>41.86094284057617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>41.860942840576172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5035,28 +5085,28 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>338587.6510742187</v>
+        <v>338587.65107421868</v>
       </c>
       <c r="D7">
         <v>357.2299659729004</v>
       </c>
       <c r="E7">
-        <v>0.267594593395191</v>
+        <v>0.26759459339519098</v>
       </c>
       <c r="F7">
-        <v>403.7777452943855</v>
+        <v>403.77774529438551</v>
       </c>
       <c r="G7">
-        <v>-6.644480342664433</v>
+        <v>-6.6444803426644334</v>
       </c>
       <c r="H7">
         <v>38</v>
       </c>
       <c r="I7">
-        <v>567312.348910292</v>
+        <v>567312.34891029203</v>
       </c>
       <c r="J7">
-        <v>460.8902010171989</v>
+        <v>460.89020101719888</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5068,10 +5118,10 @@
         <v>4410.0439453125</v>
       </c>
       <c r="N7">
-        <v>51.33213424682617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>51.332134246826172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5079,19 +5129,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>200167.3079101563</v>
+        <v>200167.30791015629</v>
       </c>
       <c r="D8">
-        <v>275.1842193603516</v>
+        <v>275.18421936035162</v>
       </c>
       <c r="E8">
-        <v>0.2125230612460861</v>
+        <v>0.21252306124608611</v>
       </c>
       <c r="F8">
-        <v>316.6003627299231</v>
+        <v>316.60036272992312</v>
       </c>
       <c r="G8">
-        <v>-3.790973584725634</v>
+        <v>-3.7909735847256338</v>
       </c>
       <c r="H8">
         <v>51.2</v>
@@ -5112,10 +5162,10 @@
         <v>4169.19287109375</v>
       </c>
       <c r="N8">
-        <v>51.07997512817383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>51.079975128173828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5123,16 +5173,16 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>156447.5838378906</v>
+        <v>156447.58383789059</v>
       </c>
       <c r="D9">
         <v>250.2441337585449</v>
       </c>
       <c r="E9">
-        <v>0.1978058938739946</v>
+        <v>0.19780589387399461</v>
       </c>
       <c r="F9">
-        <v>291.6865314660556</v>
+        <v>291.68653146605561</v>
       </c>
       <c r="G9">
         <v>-2.691758547622447</v>
@@ -5141,7 +5191,7 @@
         <v>53.6</v>
       </c>
       <c r="I9">
-        <v>244859.8180302028</v>
+        <v>244859.81803020279</v>
       </c>
       <c r="J9">
         <v>284.7157231956694</v>
@@ -5156,10 +5206,10 @@
         <v>3354.867431640625</v>
       </c>
       <c r="N9">
-        <v>42.77275466918945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>42.772754669189453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5167,28 +5217,28 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>241830.0829589844</v>
+        <v>241830.08295898439</v>
       </c>
       <c r="D10">
         <v>297.1540412902832</v>
       </c>
       <c r="E10">
-        <v>0.2301493304667286</v>
+        <v>0.23014933046672861</v>
       </c>
       <c r="F10">
-        <v>333.6193537064602</v>
+        <v>333.61935370646017</v>
       </c>
       <c r="G10">
-        <v>-4.890837922603644</v>
+        <v>-4.8908379226036436</v>
       </c>
       <c r="H10">
         <v>28.2</v>
       </c>
       <c r="I10">
-        <v>446921.9220306177</v>
+        <v>446921.92203061772</v>
       </c>
       <c r="J10">
-        <v>402.4517716651005</v>
+        <v>402.45177166510052</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -5200,10 +5250,10 @@
         <v>3969.239501953125</v>
       </c>
       <c r="N10">
-        <v>50.90125274658203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>50.901252746582031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5211,7 +5261,7 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>142136.9103027344</v>
+        <v>142136.91030273441</v>
       </c>
       <c r="D11">
         <v>233.316544342041</v>
@@ -5220,19 +5270,19 @@
         <v>0.1831417475220149</v>
       </c>
       <c r="F11">
-        <v>269.1467184974564</v>
+        <v>269.14671849745639</v>
       </c>
       <c r="G11">
-        <v>-2.440620225393673</v>
+        <v>-2.4406202253936731</v>
       </c>
       <c r="H11">
         <v>41</v>
       </c>
       <c r="I11">
-        <v>242018.2891215574</v>
+        <v>242018.28912155741</v>
       </c>
       <c r="J11">
-        <v>288.1447943354291</v>
+        <v>288.14479433542908</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5244,10 +5294,10 @@
         <v>2927.558837890625</v>
       </c>
       <c r="N11">
-        <v>39.46227645874024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>39.462276458740241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5255,28 +5305,28 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>126304.9360351562</v>
+        <v>126304.93603515621</v>
       </c>
       <c r="D12">
         <v>225.2748947143555</v>
       </c>
       <c r="E12">
-        <v>0.1787964136464976</v>
+        <v>0.17879641364649759</v>
       </c>
       <c r="F12">
-        <v>263.9677402718347</v>
+        <v>263.96774027183471</v>
       </c>
       <c r="G12">
-        <v>-1.984960663850443</v>
+        <v>-1.9849606638504429</v>
       </c>
       <c r="H12">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I12">
-        <v>196297.7370266577</v>
+        <v>196297.73702665771</v>
       </c>
       <c r="J12">
-        <v>255.4010117183601</v>
+        <v>255.40101171836011</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5288,10 +5338,10 @@
         <v>3551.248046875</v>
       </c>
       <c r="N12">
-        <v>45.21559524536133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>45.215595245361328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5299,28 +5349,28 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>260695.0802734375</v>
+        <v>260695.08027343749</v>
       </c>
       <c r="D13">
-        <v>302.4321525573731</v>
+        <v>302.43215255737312</v>
       </c>
       <c r="E13">
-        <v>0.2291741831699909</v>
+        <v>0.22917418316999091</v>
       </c>
       <c r="F13">
-        <v>338.8088095674453</v>
+        <v>338.80880956744528</v>
       </c>
       <c r="G13">
-        <v>-5.298179779572108</v>
+        <v>-5.2981797795721084</v>
       </c>
       <c r="H13">
         <v>29.4</v>
       </c>
       <c r="I13">
-        <v>493022.2257571457</v>
+        <v>493022.22575714567</v>
       </c>
       <c r="J13">
-        <v>427.0693899489581</v>
+        <v>427.06938994895808</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5332,10 +5382,10 @@
         <v>3260.22412109375</v>
       </c>
       <c r="N13">
-        <v>42.76593399047852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>42.765933990478523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5343,28 +5393,28 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>85087.40659179687</v>
+        <v>85087.406591796869</v>
       </c>
       <c r="D14">
-        <v>187.2726188659668</v>
+        <v>187.27261886596679</v>
       </c>
       <c r="E14">
-        <v>0.1497047690717355</v>
+        <v>0.14970476907173549</v>
       </c>
       <c r="F14">
-        <v>224.2467031773037</v>
+        <v>224.24670317730369</v>
       </c>
       <c r="G14">
-        <v>-0.978771072820475</v>
+        <v>-0.97877107282047504</v>
       </c>
       <c r="H14">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="I14">
         <v>119345.0953083747</v>
       </c>
       <c r="J14">
-        <v>191.8399490888578</v>
+        <v>191.83994908885779</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -5376,10 +5426,10 @@
         <v>2778.181884765625</v>
       </c>
       <c r="N14">
-        <v>38.24588012695312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>38.245880126953118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5387,28 +5437,28 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>129432.6854980469</v>
+        <v>129432.68549804691</v>
       </c>
       <c r="D15">
-        <v>225.9145629882813</v>
+        <v>225.91456298828129</v>
       </c>
       <c r="E15">
-        <v>0.1781195476909624</v>
+        <v>0.17811954769096239</v>
       </c>
       <c r="F15">
-        <v>265.3687200433632</v>
+        <v>265.36872004336323</v>
       </c>
       <c r="G15">
-        <v>-2.040601752342188</v>
+        <v>-2.0406017523421882</v>
       </c>
       <c r="H15">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I15">
-        <v>201775.5404543118</v>
+        <v>201775.54045431179</v>
       </c>
       <c r="J15">
-        <v>257.9593204162142</v>
+        <v>257.95932041621421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5420,10 +5470,10 @@
         <v>4019.853759765625</v>
       </c>
       <c r="N15">
-        <v>50.23584747314453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>50.235847473144531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5434,25 +5484,25 @@
         <v>130796.8555664062</v>
       </c>
       <c r="D16">
-        <v>226.8419136047363</v>
+        <v>226.84191360473631</v>
       </c>
       <c r="E16">
         <v>0.1791247040438374</v>
       </c>
       <c r="F16">
-        <v>264.0283213981053</v>
+        <v>264.02832139810528</v>
       </c>
       <c r="G16">
-        <v>-2.126827093114433</v>
+        <v>-2.1268270931144331</v>
       </c>
       <c r="H16">
         <v>41.2</v>
       </c>
       <c r="I16">
-        <v>211622.7733195779</v>
+        <v>211622.77331957789</v>
       </c>
       <c r="J16">
-        <v>267.2062832863788</v>
+        <v>267.20628328637878</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5464,10 +5514,10 @@
         <v>2881.595703125</v>
       </c>
       <c r="N16">
-        <v>38.99174880981445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>38.991748809814453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5481,22 +5531,22 @@
         <v>216.1368728637695</v>
       </c>
       <c r="E17">
-        <v>0.1684232902283749</v>
+        <v>0.16842329022837491</v>
       </c>
       <c r="F17">
-        <v>253.8534578474003</v>
+        <v>253.85345784740031</v>
       </c>
       <c r="G17">
-        <v>-1.947711690120549</v>
+        <v>-1.9477116901205489</v>
       </c>
       <c r="H17">
         <v>46.2</v>
       </c>
       <c r="I17">
-        <v>203613.7523254298</v>
+        <v>203613.75232542981</v>
       </c>
       <c r="J17">
-        <v>259.4694789295662</v>
+        <v>259.46947892956621</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5508,10 +5558,10 @@
         <v>2692.53125</v>
       </c>
       <c r="N17">
-        <v>37.82160186767578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>37.821601867675781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5525,19 +5575,19 @@
         <v>220.4273727416992</v>
       </c>
       <c r="E18">
-        <v>0.1708656080662695</v>
+        <v>0.17086560806626949</v>
       </c>
       <c r="F18">
-        <v>259.4756006564116</v>
+        <v>259.47560065641159</v>
       </c>
       <c r="G18">
-        <v>-1.755080106581065</v>
+        <v>-1.7550801065810651</v>
       </c>
       <c r="H18">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="I18">
-        <v>180714.3559801427</v>
+        <v>180714.35598014269</v>
       </c>
       <c r="J18">
         <v>246.363033025091</v>
@@ -5552,10 +5602,10 @@
         <v>2857.15869140625</v>
       </c>
       <c r="N18">
-        <v>38.91653442382812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>38.916534423828118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5569,13 +5619,13 @@
         <v>209.8046806335449</v>
       </c>
       <c r="E19">
-        <v>0.1638567319318689</v>
+        <v>0.16385673193186889</v>
       </c>
       <c r="F19">
-        <v>248.1015256914245</v>
+        <v>248.10152569142451</v>
       </c>
       <c r="G19">
-        <v>-1.576983245524407</v>
+        <v>-1.5769832455244071</v>
       </c>
       <c r="H19">
         <v>47</v>
@@ -5584,7 +5634,7 @@
         <v>169770.977527968</v>
       </c>
       <c r="J19">
-        <v>237.1592783644246</v>
+        <v>237.15927836442461</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -5596,10 +5646,10 @@
         <v>2817.332275390625</v>
       </c>
       <c r="N19">
-        <v>38.5756721496582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>38.575672149658203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5607,19 +5657,19 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>183359.2536132812</v>
+        <v>183359.25361328121</v>
       </c>
       <c r="D20">
-        <v>260.592406463623</v>
+        <v>260.59240646362298</v>
       </c>
       <c r="E20">
-        <v>0.2004634746078554</v>
+        <v>0.20046347460785541</v>
       </c>
       <c r="F20">
-        <v>296.739762667835</v>
+        <v>296.73976266783501</v>
       </c>
       <c r="G20">
-        <v>-3.384329413787839</v>
+        <v>-3.3843294137878388</v>
       </c>
       <c r="H20">
         <v>48.6</v>
@@ -5628,7 +5678,7 @@
         <v>325034.7617185961</v>
       </c>
       <c r="J20">
-        <v>340.5389777134112</v>
+        <v>340.53897771341121</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5640,10 +5690,10 @@
         <v>2989.56396484375</v>
       </c>
       <c r="N20">
-        <v>40.20781707763672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>40.207817077636719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5657,19 +5707,19 @@
         <v>214.8891525268555</v>
       </c>
       <c r="E21">
-        <v>0.1679358894541716</v>
+        <v>0.16793588945417159</v>
       </c>
       <c r="F21">
-        <v>250.342423495642</v>
+        <v>250.34242349564201</v>
       </c>
       <c r="G21">
-        <v>-1.732422292572776</v>
+        <v>-1.7324222925727759</v>
       </c>
       <c r="H21">
         <v>52.2</v>
       </c>
       <c r="I21">
-        <v>183082.9764344828</v>
+        <v>183082.97643448281</v>
       </c>
       <c r="J21">
         <v>247.305420340203</v>
@@ -5684,10 +5734,10 @@
         <v>2826.549560546875</v>
       </c>
       <c r="N21">
-        <v>39.00207138061523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>39.002071380615227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5698,22 +5748,22 @@
         <v>129746.6041503906</v>
       </c>
       <c r="D22">
-        <v>226.3809143066406</v>
+        <v>226.38091430664059</v>
       </c>
       <c r="E22">
         <v>0.1803341174119735</v>
       </c>
       <c r="F22">
-        <v>266.1820825678554</v>
+        <v>266.18208256785539</v>
       </c>
       <c r="G22">
-        <v>-2.078281480526934</v>
+        <v>-2.0782814805269338</v>
       </c>
       <c r="H22">
         <v>36</v>
       </c>
       <c r="I22">
-        <v>203198.8489785462</v>
+        <v>203198.84897854619</v>
       </c>
       <c r="J22">
         <v>258.8917839269422</v>
@@ -5728,10 +5778,10 @@
         <v>3963.161376953125</v>
       </c>
       <c r="N22">
-        <v>48.36641311645508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>48.366413116455078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5742,7 +5792,7 @@
         <v>101909.809375</v>
       </c>
       <c r="D23">
-        <v>200.6411285400391</v>
+        <v>200.64112854003909</v>
       </c>
       <c r="E23">
         <v>0.1613634122811558</v>
@@ -5751,16 +5801,16 @@
         <v>241.721128277823</v>
       </c>
       <c r="G23">
-        <v>-1.43848144623866</v>
+        <v>-1.4384814462386599</v>
       </c>
       <c r="H23">
         <v>49</v>
       </c>
       <c r="I23">
-        <v>151470.3415945497</v>
+        <v>151470.34159454971</v>
       </c>
       <c r="J23">
-        <v>214.8583067931739</v>
+        <v>214.85830679317391</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5772,10 +5822,10 @@
         <v>3144.64453125</v>
       </c>
       <c r="N23">
-        <v>41.15015029907227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>41.150150299072273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5783,13 +5833,13 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>162843.8879882813</v>
+        <v>162843.88798828129</v>
       </c>
       <c r="D24">
         <v>247.2320487976074</v>
       </c>
       <c r="E24">
-        <v>0.1935061331539094</v>
+        <v>0.19350613315390941</v>
       </c>
       <c r="F24">
         <v>288.7383029922421</v>
@@ -5804,7 +5854,7 @@
         <v>277193.2020127711</v>
       </c>
       <c r="J24">
-        <v>304.1508791929915</v>
+        <v>304.15087919299151</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -5816,10 +5866,10 @@
         <v>3283.640625</v>
       </c>
       <c r="N24">
-        <v>41.0859260559082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>41.085926055908203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5827,28 +5877,28 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>296894.3466308594</v>
+        <v>296894.34663085942</v>
       </c>
       <c r="D25">
         <v>337.9976661682129</v>
       </c>
       <c r="E25">
-        <v>0.2443668123137681</v>
+        <v>0.24436681231376811</v>
       </c>
       <c r="F25">
-        <v>394.990806767824</v>
+        <v>394.99080676782398</v>
       </c>
       <c r="G25">
-        <v>-4.507231145237497</v>
+        <v>-4.5072311452374967</v>
       </c>
       <c r="H25">
         <v>43.6</v>
       </c>
       <c r="I25">
-        <v>401429.5065610249</v>
+        <v>401429.50656102487</v>
       </c>
       <c r="J25">
-        <v>383.1669824176801</v>
+        <v>383.16698241768012</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5860,10 +5910,10 @@
         <v>4088.483154296875</v>
       </c>
       <c r="N25">
-        <v>49.86845779418945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>49.868457794189453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5871,19 +5921,19 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>152460.1631347656</v>
+        <v>152460.16313476561</v>
       </c>
       <c r="D26">
         <v>243.3716125488281</v>
       </c>
       <c r="E26">
-        <v>0.1887539962601965</v>
+        <v>0.18875399626019651</v>
       </c>
       <c r="F26">
-        <v>286.5154641624789</v>
+        <v>286.51546416247891</v>
       </c>
       <c r="G26">
-        <v>-2.507645997283766</v>
+        <v>-2.5076459972837659</v>
       </c>
       <c r="H26">
         <v>59.6</v>
@@ -5892,7 +5942,7 @@
         <v>237195.0545545104</v>
       </c>
       <c r="J26">
-        <v>281.099599064477</v>
+        <v>281.09959906447699</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -5907,7 +5957,7 @@
         <v>40.07379150390625</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5915,28 +5965,28 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>276936.6244140625</v>
+        <v>276936.62441406248</v>
       </c>
       <c r="D27">
-        <v>311.0971916198731</v>
+        <v>311.09719161987312</v>
       </c>
       <c r="E27">
-        <v>0.2381290840765765</v>
+        <v>0.23812908407657651</v>
       </c>
       <c r="F27">
-        <v>350.6012064752377</v>
+        <v>350.60120647523769</v>
       </c>
       <c r="G27">
-        <v>-5.76414482923779</v>
+        <v>-5.7641448292377904</v>
       </c>
       <c r="H27">
         <v>50.2</v>
       </c>
       <c r="I27">
-        <v>526311.754558148</v>
+        <v>526311.75455814798</v>
       </c>
       <c r="J27">
-        <v>438.5090197947296</v>
+        <v>438.50901979472962</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -5948,10 +5998,10 @@
         <v>3924.5009765625</v>
       </c>
       <c r="N27">
-        <v>46.21036148071289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>46.210361480712891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5959,28 +6009,28 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>400104.5002929688</v>
+        <v>400104.50029296882</v>
       </c>
       <c r="D28">
         <v>368.7985809326172</v>
       </c>
       <c r="E28">
-        <v>0.2739668423369297</v>
+        <v>0.27396684233692969</v>
       </c>
       <c r="F28">
-        <v>407.5092732932844</v>
+        <v>407.50927329328442</v>
       </c>
       <c r="G28">
-        <v>-8.618269878022868</v>
+        <v>-8.6182698780228684</v>
       </c>
       <c r="H28">
         <v>59.8</v>
       </c>
       <c r="I28">
-        <v>776483.5405483601</v>
+        <v>776483.54054836009</v>
       </c>
       <c r="J28">
-        <v>545.402299746678</v>
+        <v>545.40229974667795</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5992,10 +6042,10 @@
         <v>3158.03662109375</v>
       </c>
       <c r="N28">
-        <v>41.56772232055664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>41.567722320556641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6012,19 +6062,19 @@
         <v>0.182842727478535</v>
       </c>
       <c r="F29">
-        <v>266.8660926655479</v>
+        <v>266.86609266554791</v>
       </c>
       <c r="G29">
-        <v>-2.045267198598501</v>
+        <v>-2.0452671985985011</v>
       </c>
       <c r="H29">
         <v>57.4</v>
       </c>
       <c r="I29">
-        <v>194128.7272430611</v>
+        <v>194128.72724306109</v>
       </c>
       <c r="J29">
-        <v>251.2783575680513</v>
+        <v>251.27835756805129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -6036,10 +6086,10 @@
         <v>4228.27880859375</v>
       </c>
       <c r="N29">
-        <v>52.15508651733398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>52.155086517333977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6047,16 +6097,16 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>115174.0463867188</v>
+        <v>115174.04638671879</v>
       </c>
       <c r="D30">
         <v>224.8634353637695</v>
       </c>
       <c r="E30">
-        <v>0.1810721154750344</v>
+        <v>0.18107211547503441</v>
       </c>
       <c r="F30">
-        <v>264.5891552999481</v>
+        <v>264.58915529994812</v>
       </c>
       <c r="G30">
         <v>-1.665065410253711</v>
@@ -6068,7 +6118,7 @@
         <v>157424.863089094</v>
       </c>
       <c r="J30">
-        <v>223.6667666745398</v>
+        <v>223.66676667453979</v>
       </c>
       <c r="K30">
         <v>2</v>
